--- a/Civilworks cost/IMED/Imed_calculation/Monthly_Expenditure_2020_21.xlsx
+++ b/Civilworks cost/IMED/Imed_calculation/Monthly_Expenditure_2020_21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DPP_ALLOC" sheetId="41" r:id="rId1"/>
@@ -2782,19 +2782,19 @@
       <selection activeCell="G2" sqref="G2:G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="37" customWidth="1"/>
     <col min="5" max="5" width="9" style="37" customWidth="1"/>
     <col min="6" max="6" width="18" style="37" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="37" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="37"/>
+    <col min="7" max="7" width="11.6640625" style="37" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="157" t="s">
         <v>196</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="136">
         <v>3111302</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="136">
         <v>3111327</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="136">
         <v>3111338</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="136">
         <v>3241101</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="138" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="138" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="136">
         <v>3211129</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="138" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="138" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="136">
         <v>3821103</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>2596.27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="136">
         <v>3211119</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="136">
         <v>3211120</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136">
         <v>3211117</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="136">
         <v>3221104</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="136">
         <v>3211115</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="136">
         <v>3211113</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="136">
         <v>3243102</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="136">
         <v>3243101</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="136">
         <v>3221108</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="136">
         <v>3255102</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="136">
         <v>3255104</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="136">
         <v>3211127</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="136">
         <v>3231201</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>238.54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="138" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="138" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="136">
         <v>3231201</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>398.41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="138" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="138" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A22" s="136">
         <v>3231201</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>2533.34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="138" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="138" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="136">
         <v>3231201</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>1321.6799999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="136">
         <v>3211109</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="136">
         <v>3256103</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="136">
         <v>3257101</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>7901.4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="317">
         <v>3111332</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="317"/>
       <c r="B28" s="34" t="s">
         <v>144</v>
@@ -3361,7 +3361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="317"/>
       <c r="B29" s="34" t="s">
         <v>145</v>
@@ -3379,7 +3379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="136">
         <v>3257104</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="136">
         <v>3255101</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="136">
         <v>3256101</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="141">
         <v>3258101</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="141">
         <v>3258102</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="141">
         <v>3258103</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="141">
         <v>3258105</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="141">
         <v>3258107</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="141">
         <v>3258106</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="141">
         <v>3258105</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="146" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="146" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="144">
         <v>3258114</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>362.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="141">
         <v>3258128</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="143" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="141">
         <v>3258107</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.3">
       <c r="A43" s="148">
         <v>4112101</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>702.5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="148">
         <v>4112101</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>68.25</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="150">
         <v>4112102</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="318">
         <v>4112316</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="318"/>
       <c r="B47" s="34" t="s">
         <v>170</v>
@@ -3739,7 +3739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="150">
         <v>4112304</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="150">
         <v>4112304</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="150">
         <v>4112304</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A51" s="150">
         <v>4112202</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="150">
         <v>4112202</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="150">
         <v>4112202</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="150">
         <v>4112202</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="148">
         <v>4112314</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="148">
         <v>4112303</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="151">
         <v>4141101</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="154">
         <v>4111306</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="154">
         <v>4111307</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="154">
         <v>4111307</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>20311</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="154">
         <v>4111307</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>9729</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="150">
         <v>4111201</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="150">
         <v>4111201</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="150">
         <v>4111201</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="150">
         <v>4111201</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>11952.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="150">
         <v>4111201</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="150">
         <v>4111201</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="150">
         <v>4111201</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="153" t="s">
         <v>296</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="153" t="s">
         <v>297</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>402.14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D71" s="122"/>
       <c r="E71" s="122"/>
       <c r="F71" s="122"/>
@@ -4252,16 +4252,16 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="123"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="123" t="s">
         <v>223</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>101</v>
       </c>
@@ -4335,7 +4335,7 @@
       <c r="O2" s="131"/>
       <c r="P2" s="131"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>105</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="O3" s="131"/>
       <c r="P3" s="131"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>107</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="O4" s="131"/>
       <c r="P4" s="131"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>109</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>111</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="O6" s="131"/>
       <c r="P6" s="131"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>115</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="O7" s="131"/>
       <c r="P7" s="131"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>117</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="O8" s="131"/>
       <c r="P8" s="131"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>120</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="O9" s="131"/>
       <c r="P9" s="131"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>123</v>
       </c>
@@ -4549,7 +4549,7 @@
       <c r="O10" s="131"/>
       <c r="P10" s="131"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>125</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="O11" s="131"/>
       <c r="P11" s="131"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>127</v>
       </c>
@@ -4597,7 +4597,7 @@
       <c r="O12" s="131"/>
       <c r="P12" s="131"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>129</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="O13" s="131"/>
       <c r="P13" s="131"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>131</v>
       </c>
@@ -4645,7 +4645,7 @@
       <c r="O14" s="131"/>
       <c r="P14" s="131"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>133</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>137</v>
       </c>
@@ -4715,7 +4715,7 @@
       <c r="O16" s="131"/>
       <c r="P16" s="131"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>139</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>141</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>143</v>
       </c>
@@ -4809,7 +4809,7 @@
       <c r="O19" s="131"/>
       <c r="P19" s="131"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>147</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="P20" s="131"/>
       <c r="S20" s="188"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>149</v>
       </c>
@@ -4855,7 +4855,7 @@
       <c r="N21" s="131"/>
       <c r="O21" s="131"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>151</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>153</v>
       </c>
@@ -4919,7 +4919,7 @@
       <c r="O23" s="131"/>
       <c r="P23" s="131"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>164</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="O24" s="131"/>
       <c r="P24" s="131"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>167</v>
       </c>
@@ -4971,7 +4971,7 @@
       <c r="O25" s="131"/>
       <c r="P25" s="131"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>169</v>
       </c>
@@ -4993,7 +4993,7 @@
       <c r="O26" s="131"/>
       <c r="P26" s="131"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>172</v>
       </c>
@@ -5017,7 +5017,7 @@
       <c r="O27" s="131"/>
       <c r="P27" s="131"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>176</v>
       </c>
@@ -5039,7 +5039,7 @@
       <c r="O28" s="131"/>
       <c r="P28" s="131"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>180</v>
       </c>
@@ -5061,7 +5061,7 @@
       <c r="O29" s="131"/>
       <c r="P29" s="131"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>183</v>
       </c>
@@ -5089,7 +5089,7 @@
       <c r="O30" s="131"/>
       <c r="P30" s="131"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>185</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="181" t="s">
         <v>285</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="O32" s="110"/>
       <c r="P32" s="110"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="181" t="s">
         <v>286</v>
       </c>
@@ -5187,7 +5187,7 @@
       <c r="O33" s="110"/>
       <c r="P33" s="110"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C34" s="190"/>
       <c r="E34" s="316">
         <v>0</v>
@@ -5196,157 +5196,157 @@
       <c r="O34" s="188"/>
       <c r="P34" s="188"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E35" s="316">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E36" s="316">
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E37" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E38" s="316"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E39" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E40" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E41" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E42" s="316">
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E43" s="316"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E44" s="316"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E45" s="316"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E46" s="316"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E47" s="316"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E48" s="316"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="316"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="316">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="316"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" s="316"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E54" s="316"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E55" s="316"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E56" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" s="316"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E58" s="316">
         <v>17.5</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E59" s="316">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E60" s="316">
         <v>86.63</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E61" s="316">
         <v>12.5</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E62" s="316">
         <v>15.75</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E63" s="316">
         <v>17.5</v>
       </c>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E64" s="316">
         <v>17.5</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E65" s="316">
         <v>134.75</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E66" s="316">
         <v>2.62</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" s="316">
         <v>8.75</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E68" s="316">
         <v>12.5</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" s="316"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" s="316"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E71" s="190">
         <f>SUM(E2:E70)</f>
         <v>491.44</v>
@@ -5366,16 +5366,16 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="75.140625" style="130" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="75.109375" style="130" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="123"/>
+    <col min="5" max="5" width="9.109375" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>196</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33">
         <v>3111302</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="G2" s="110"/>
       <c r="H2" s="110"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="33">
         <v>3111327</v>
       </c>
@@ -5443,7 +5443,7 @@
       <c r="G3" s="110"/>
       <c r="H3" s="110"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="33">
         <v>3111338</v>
       </c>
@@ -5464,7 +5464,7 @@
       <c r="G4" s="110"/>
       <c r="H4" s="110"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="33">
         <v>3241101</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="33">
         <v>3211129</v>
       </c>
@@ -5506,7 +5506,7 @@
       <c r="G6" s="110"/>
       <c r="H6" s="110"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="33">
         <v>3821103</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="G7" s="110"/>
       <c r="H7" s="110"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="33">
         <v>3211119</v>
       </c>
@@ -5548,7 +5548,7 @@
       <c r="G8" s="110"/>
       <c r="H8" s="110"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
         <v>3211120</v>
       </c>
@@ -5569,7 +5569,7 @@
       <c r="G9" s="110"/>
       <c r="H9" s="110"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>3211117</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="G10" s="110"/>
       <c r="H10" s="110"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
         <v>3221104</v>
       </c>
@@ -5611,7 +5611,7 @@
       <c r="G11" s="110"/>
       <c r="H11" s="110"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>3211115</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="G12" s="110"/>
       <c r="H12" s="110"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="33">
         <v>3211113</v>
       </c>
@@ -5653,7 +5653,7 @@
       <c r="G13" s="110"/>
       <c r="H13" s="110"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="33">
         <v>3243102</v>
       </c>
@@ -5674,7 +5674,7 @@
       <c r="G14" s="110"/>
       <c r="H14" s="110"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>3243101</v>
       </c>
@@ -5695,7 +5695,7 @@
       <c r="G15" s="110"/>
       <c r="H15" s="110"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
         <v>3221108</v>
       </c>
@@ -5716,7 +5716,7 @@
       <c r="G16" s="110"/>
       <c r="H16" s="110"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>3255102</v>
       </c>
@@ -5737,7 +5737,7 @@
       <c r="G17" s="110"/>
       <c r="H17" s="110"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
         <v>3255104</v>
       </c>
@@ -5758,7 +5758,7 @@
       <c r="G18" s="110"/>
       <c r="H18" s="110"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>3211127</v>
       </c>
@@ -5779,7 +5779,7 @@
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="33">
         <v>3231201</v>
       </c>
@@ -5800,7 +5800,7 @@
       <c r="G20" s="110"/>
       <c r="H20" s="110"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="33">
         <v>3231201</v>
       </c>
@@ -5821,7 +5821,7 @@
       <c r="G21" s="110"/>
       <c r="H21" s="110"/>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="33">
         <v>3231201</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="G22" s="110"/>
       <c r="H22" s="110"/>
     </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="33">
         <v>3231201</v>
       </c>
@@ -5863,7 +5863,7 @@
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="33">
         <v>3211109</v>
       </c>
@@ -5884,7 +5884,7 @@
       <c r="G24" s="110"/>
       <c r="H24" s="110"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="33">
         <v>3256103</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="G25" s="110"/>
       <c r="H25" s="110"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="33">
         <v>3257101</v>
       </c>
@@ -5926,7 +5926,7 @@
       <c r="G26" s="110"/>
       <c r="H26" s="110"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
         <v>3111332</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="G27" s="110"/>
       <c r="H27" s="110"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="33">
         <v>3111332</v>
       </c>
@@ -5968,7 +5968,7 @@
       <c r="G28" s="110"/>
       <c r="H28" s="110"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="33">
         <v>3111332</v>
       </c>
@@ -5989,7 +5989,7 @@
       <c r="G29" s="110"/>
       <c r="H29" s="110"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="33">
         <v>3257104</v>
       </c>
@@ -6010,7 +6010,7 @@
       <c r="G30" s="110"/>
       <c r="H30" s="110"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="33">
         <v>3255101</v>
       </c>
@@ -6031,7 +6031,7 @@
       <c r="G31" s="110"/>
       <c r="H31" s="110"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="33">
         <v>3256101</v>
       </c>
@@ -6052,7 +6052,7 @@
       <c r="G32" s="110"/>
       <c r="H32" s="110"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="33">
         <v>3258101</v>
       </c>
@@ -6073,7 +6073,7 @@
       <c r="G33" s="110"/>
       <c r="H33" s="110"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="33">
         <v>3258102</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="G34" s="110"/>
       <c r="H34" s="110"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="33">
         <v>3258103</v>
       </c>
@@ -6115,7 +6115,7 @@
       <c r="G35" s="110"/>
       <c r="H35" s="110"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="33">
         <v>3258105</v>
       </c>
@@ -6136,7 +6136,7 @@
       <c r="G36" s="110"/>
       <c r="H36" s="110"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="33">
         <v>3258107</v>
       </c>
@@ -6157,7 +6157,7 @@
       <c r="G37" s="110"/>
       <c r="H37" s="110"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="33">
         <v>3258106</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="G38" s="110"/>
       <c r="H38" s="110"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="33">
         <v>3258105</v>
       </c>
@@ -6199,7 +6199,7 @@
       <c r="G39" s="110"/>
       <c r="H39" s="110"/>
     </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="33">
         <v>3258114</v>
       </c>
@@ -6220,7 +6220,7 @@
       <c r="G40" s="110"/>
       <c r="H40" s="110"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="33">
         <v>3258128</v>
       </c>
@@ -6241,7 +6241,7 @@
       <c r="G41" s="110"/>
       <c r="H41" s="110"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="33">
         <v>3258107</v>
       </c>
@@ -6262,7 +6262,7 @@
       <c r="G42" s="110"/>
       <c r="H42" s="110"/>
     </row>
-    <row r="43" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="33">
         <v>4112101</v>
       </c>
@@ -6283,7 +6283,7 @@
       <c r="G43" s="110"/>
       <c r="H43" s="110"/>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="33">
         <v>4112101</v>
       </c>
@@ -6304,7 +6304,7 @@
       <c r="G44" s="110"/>
       <c r="H44" s="110"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="33">
         <v>4112102</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="G45" s="110"/>
       <c r="H45" s="110"/>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="33">
         <v>4112316</v>
       </c>
@@ -6346,7 +6346,7 @@
       <c r="G46" s="110"/>
       <c r="H46" s="110"/>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="33">
         <v>4112316</v>
       </c>
@@ -6367,7 +6367,7 @@
       <c r="G47" s="110"/>
       <c r="H47" s="110"/>
     </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="33">
         <v>4112304</v>
       </c>
@@ -6388,7 +6388,7 @@
       <c r="G48" s="110"/>
       <c r="H48" s="110"/>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="33">
         <v>4112304</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="G49" s="110"/>
       <c r="H49" s="110"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="33">
         <v>4112304</v>
       </c>
@@ -6430,7 +6430,7 @@
       <c r="G50" s="110"/>
       <c r="H50" s="110"/>
     </row>
-    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="33">
         <v>4112202</v>
       </c>
@@ -6451,7 +6451,7 @@
       <c r="G51" s="110"/>
       <c r="H51" s="110"/>
     </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="33">
         <v>4112202</v>
       </c>
@@ -6472,7 +6472,7 @@
       <c r="G52" s="110"/>
       <c r="H52" s="110"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="33">
         <v>4112202</v>
       </c>
@@ -6493,7 +6493,7 @@
       <c r="G53" s="110"/>
       <c r="H53" s="110"/>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="33">
         <v>4112202</v>
       </c>
@@ -6514,7 +6514,7 @@
       <c r="G54" s="110"/>
       <c r="H54" s="110"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="33">
         <v>4112314</v>
       </c>
@@ -6535,7 +6535,7 @@
       <c r="G55" s="110"/>
       <c r="H55" s="110"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="33">
         <v>4112303</v>
       </c>
@@ -6556,7 +6556,7 @@
       <c r="G56" s="110"/>
       <c r="H56" s="110"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
         <v>4141101</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="G57" s="110"/>
       <c r="H57" s="110"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="33">
         <v>4111306</v>
       </c>
@@ -6598,7 +6598,7 @@
       <c r="G58" s="110"/>
       <c r="H58" s="110"/>
     </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
         <v>4111307</v>
       </c>
@@ -6619,7 +6619,7 @@
       <c r="G59" s="110"/>
       <c r="H59" s="110"/>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="33">
         <v>4111307</v>
       </c>
@@ -6640,7 +6640,7 @@
       <c r="G60" s="110"/>
       <c r="H60" s="110"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="33">
         <v>4111307</v>
       </c>
@@ -6661,7 +6661,7 @@
       <c r="G61" s="110"/>
       <c r="H61" s="110"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="33">
         <v>4111201</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="G62" s="110"/>
       <c r="H62" s="110"/>
     </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="33">
         <v>4111201</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="G63" s="110"/>
       <c r="H63" s="110"/>
     </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="33">
         <v>4111201</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="G64" s="110"/>
       <c r="H64" s="110"/>
     </row>
-    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="33">
         <v>4111201</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="G65" s="110"/>
       <c r="H65" s="110"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="33">
         <v>4111201</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="G66" s="110"/>
       <c r="H66" s="110"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="33">
         <v>4111201</v>
       </c>
@@ -6787,7 +6787,7 @@
       <c r="G67" s="110"/>
       <c r="H67" s="110"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="33">
         <v>4111201</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="G68" s="110"/>
       <c r="H68" s="110"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="110" t="s">
         <v>296</v>
       </c>
@@ -6824,7 +6824,7 @@
       <c r="G69" s="110"/>
       <c r="H69" s="110"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="110" t="s">
         <v>297</v>
       </c>
@@ -6840,7 +6840,7 @@
       <c r="G70" s="110"/>
       <c r="H70" s="110"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E71" s="123">
         <f>SUM(E2:E70)</f>
         <v>500</v>
@@ -6859,15 +6859,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="110" t="s">
         <v>223</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>109</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="110" t="s">
         <v>133</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="110" t="s">
         <v>141</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
         <v>151</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="110" t="s">
         <v>147</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="323" t="s">
         <v>252</v>
       </c>
@@ -6983,7 +6983,7 @@
       <c r="D7" s="323"/>
       <c r="E7" s="323"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="110" t="s">
         <v>164</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="110" t="s">
         <v>167</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
         <v>169</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="110" t="s">
         <v>172</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="110" t="s">
         <v>176</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="110" t="s">
         <v>180</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
         <v>183</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="110" t="s">
         <v>185</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="110"/>
       <c r="B16" s="110"/>
       <c r="C16" s="133">
@@ -7160,14 +7160,14 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.5546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="123" customWidth="1"/>
-    <col min="2" max="2" width="85.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="123" customWidth="1"/>
+    <col min="2" max="2" width="85.33203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="123" t="s">
         <v>294</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="173">
         <v>3111302</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="173">
         <v>3111327</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="173">
         <v>3111338</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170">
         <v>3241101</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170">
         <v>3211129</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170">
         <v>3821103</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="170">
         <v>3211119</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="170">
         <v>3211120</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="170">
         <v>3211117</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="170">
         <v>3221104</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="170">
         <v>3211115</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="170">
         <v>3211113</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="170">
         <v>3243102</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="170">
         <v>3243101</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="170">
         <v>3221108</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="170">
         <v>3255102</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="170">
         <v>3255104</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="170">
         <v>3211127</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="170">
         <v>3231201</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="170">
         <v>3231201</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="170">
         <v>3231201</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="170">
         <v>3231201</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="170">
         <v>3211109</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="170">
         <v>3256103</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="170">
         <v>3257101</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="177">
         <v>3111332</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="177">
         <v>3111332</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="177">
         <v>3111332</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="170">
         <v>3257104</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="170">
         <v>3255101</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="170">
         <v>3256101</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="170">
         <v>3258101</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="170">
         <v>3258102</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="170">
         <v>3258103</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="170">
         <v>3258105</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="170">
         <v>3258107</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="170">
         <v>3258106</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="170">
         <v>3258105</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="173">
         <v>3258114</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="170">
         <v>3258128</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="170">
         <v>3258107</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="148">
         <v>4112101</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="148">
         <v>4112101</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="171">
         <v>4112102</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="182" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="182" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="180">
         <v>4112316</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="182" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="182" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="180">
         <v>4112316</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="171">
         <v>4112304</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="171">
         <v>4112304</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="171">
         <v>4112304</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="171">
         <v>4112202</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="171">
         <v>4112202</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="171">
         <v>4112202</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="171">
         <v>4112202</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="148">
         <v>4112314</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="148">
         <v>4112303</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="151">
         <v>4141101</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="154">
         <v>4111306</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="154">
         <v>4111307</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="154">
         <v>4111307</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="154">
         <v>4111307</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="171">
         <v>4111201</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="171">
         <v>4111201</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="171">
         <v>4111201</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="171">
         <v>4111201</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="171">
         <v>4111201</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="171">
         <v>4111201</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="171">
         <v>4111201</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="153" t="s">
         <v>296</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="153" t="s">
         <v>297</v>
       </c>
@@ -7954,18 +7954,18 @@
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="16" style="123" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="123" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="123" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="130" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="130" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="135" t="s">
         <v>223</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="C2" s="123"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="C3" s="123"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -8075,7 +8075,7 @@
       </c>
       <c r="C4" s="123"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="C5" s="123"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="C6" s="123"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="C7" s="123"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="C8" s="123"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C9" s="123"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="C10" s="123"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="C11" s="123"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="C12" s="123"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="C13" s="123"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="C14" s="123"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -8174,7 +8174,7 @@
       </c>
       <c r="C15" s="123"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="C16" s="123"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="C17" s="123"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="C18" s="123"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="C19" s="123"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>147</v>
       </c>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="C20" s="123"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="C21" s="123"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="C22" s="123"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="C23" s="123"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>164</v>
       </c>
@@ -8255,7 +8255,7 @@
       </c>
       <c r="C24" s="123"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="C25" s="123"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>169</v>
       </c>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C26" s="123"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>172</v>
       </c>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="C27" s="123"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="C28" s="123"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>180</v>
       </c>
@@ -8300,7 +8300,7 @@
       </c>
       <c r="C29" s="123"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="C30" s="123"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>185</v>
       </c>
@@ -8318,7 +8318,7 @@
       </c>
       <c r="C31" s="123"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>285</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -8345,12 +8345,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="275" t="s">
         <v>295</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>101</v>
       </c>
@@ -8392,7 +8392,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="110" t="s">
         <v>105</v>
       </c>
@@ -8405,7 +8405,7 @@
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="110" t="s">
         <v>107</v>
       </c>
@@ -8418,7 +8418,7 @@
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="110" t="s">
         <v>109</v>
       </c>
@@ -8431,7 +8431,7 @@
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="110" t="s">
         <v>111</v>
       </c>
@@ -8444,7 +8444,7 @@
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="110" t="s">
         <v>115</v>
       </c>
@@ -8457,7 +8457,7 @@
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="110" t="s">
         <v>117</v>
       </c>
@@ -8470,7 +8470,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="110" t="s">
         <v>120</v>
       </c>
@@ -8483,7 +8483,7 @@
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="110" t="s">
         <v>123</v>
       </c>
@@ -8496,7 +8496,7 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="110" t="s">
         <v>125</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="110" t="s">
         <v>127</v>
       </c>
@@ -8522,7 +8522,7 @@
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="110" t="s">
         <v>129</v>
       </c>
@@ -8535,7 +8535,7 @@
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="110" t="s">
         <v>131</v>
       </c>
@@ -8548,7 +8548,7 @@
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="110" t="s">
         <v>133</v>
       </c>
@@ -8561,7 +8561,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="110" t="s">
         <v>137</v>
       </c>
@@ -8574,7 +8574,7 @@
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="110" t="s">
         <v>139</v>
       </c>
@@ -8587,7 +8587,7 @@
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="110" t="s">
         <v>141</v>
       </c>
@@ -8600,7 +8600,7 @@
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="110" t="s">
         <v>143</v>
       </c>
@@ -8613,7 +8613,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="110" t="s">
         <v>147</v>
       </c>
@@ -8626,7 +8626,7 @@
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="110" t="s">
         <v>149</v>
       </c>
@@ -8639,7 +8639,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="110" t="s">
         <v>151</v>
       </c>
@@ -8652,7 +8652,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="110" t="s">
         <v>153</v>
       </c>
@@ -8665,7 +8665,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="110" t="s">
         <v>164</v>
       </c>
@@ -8678,7 +8678,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="110" t="s">
         <v>167</v>
       </c>
@@ -8691,7 +8691,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="110" t="s">
         <v>169</v>
       </c>
@@ -8704,7 +8704,7 @@
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="110" t="s">
         <v>172</v>
       </c>
@@ -8717,7 +8717,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="110" t="s">
         <v>176</v>
       </c>
@@ -8730,7 +8730,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="110" t="s">
         <v>180</v>
       </c>
@@ -8743,7 +8743,7 @@
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="110" t="s">
         <v>183</v>
       </c>
@@ -8756,7 +8756,7 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="110" t="s">
         <v>185</v>
       </c>
@@ -8769,7 +8769,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="110" t="s">
         <v>285</v>
       </c>
@@ -8782,7 +8782,7 @@
       <c r="H32" s="110"/>
       <c r="I32" s="110"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="110" t="s">
         <v>286</v>
       </c>
@@ -8808,15 +8808,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>298</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>305</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>307</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -8903,25 +8903,25 @@
       <selection pane="bottomLeft" activeCell="H2" sqref="H2:K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="70" customWidth="1"/>
-    <col min="4" max="7" width="18.85546875" style="72" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="70" customWidth="1"/>
+    <col min="4" max="7" width="18.88671875" style="72" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="51" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="51" customWidth="1"/>
     <col min="10" max="10" width="21" style="120" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="37" customWidth="1"/>
     <col min="12" max="12" width="29" style="37" customWidth="1"/>
-    <col min="13" max="13" width="33.85546875" style="37" customWidth="1"/>
-    <col min="14" max="14" width="33.85546875" style="122" customWidth="1"/>
-    <col min="15" max="19" width="33.85546875" style="37" customWidth="1"/>
-    <col min="20" max="62" width="9.140625" style="37"/>
-    <col min="63" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="33.88671875" style="37" customWidth="1"/>
+    <col min="14" max="14" width="33.88671875" style="122" customWidth="1"/>
+    <col min="15" max="19" width="33.88671875" style="37" customWidth="1"/>
+    <col min="20" max="62" width="9.109375" style="37"/>
+    <col min="63" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="236" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="236" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="235" t="s">
         <v>196</v>
       </c>
@@ -8982,7 +8982,7 @@
       <c r="BK1" s="238"/>
       <c r="BL1" s="238"/>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
         <v>3111302</v>
       </c>
@@ -9021,7 +9021,7 @@
       <c r="R2" s="153"/>
       <c r="S2" s="153"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
         <v>3111327</v>
       </c>
@@ -9060,7 +9060,7 @@
       <c r="R3" s="153"/>
       <c r="S3" s="153"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
         <v>3111338</v>
       </c>
@@ -9099,7 +9099,7 @@
       <c r="R4" s="153"/>
       <c r="S4" s="153"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" s="55">
         <v>3241101</v>
       </c>
@@ -9138,7 +9138,7 @@
       <c r="R5" s="153"/>
       <c r="S5" s="153"/>
     </row>
-    <row r="6" spans="1:64" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" s="55">
         <v>3211129</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="R6" s="153"/>
       <c r="S6" s="153"/>
     </row>
-    <row r="7" spans="1:64" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>3821103</v>
       </c>
@@ -9216,7 +9216,7 @@
       <c r="R7" s="153"/>
       <c r="S7" s="153"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" s="55">
         <v>3211119</v>
       </c>
@@ -9255,7 +9255,7 @@
       <c r="R8" s="153"/>
       <c r="S8" s="153"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>3211120</v>
       </c>
@@ -9294,7 +9294,7 @@
       <c r="R9" s="153"/>
       <c r="S9" s="153"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>3211117</v>
       </c>
@@ -9333,7 +9333,7 @@
       <c r="R10" s="153"/>
       <c r="S10" s="153"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>3221104</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="R11" s="153"/>
       <c r="S11" s="153"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" s="55">
         <v>3211115</v>
       </c>
@@ -9411,7 +9411,7 @@
       <c r="R12" s="153"/>
       <c r="S12" s="153"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>3211113</v>
       </c>
@@ -9450,7 +9450,7 @@
       <c r="R13" s="153"/>
       <c r="S13" s="153"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" s="55">
         <v>3243102</v>
       </c>
@@ -9489,7 +9489,7 @@
       <c r="R14" s="153"/>
       <c r="S14" s="153"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" s="55">
         <v>3243101</v>
       </c>
@@ -9528,7 +9528,7 @@
       <c r="R15" s="153"/>
       <c r="S15" s="153"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" s="55">
         <v>3221108</v>
       </c>
@@ -9567,7 +9567,7 @@
       <c r="R16" s="153"/>
       <c r="S16" s="153"/>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>3255102</v>
       </c>
@@ -9606,7 +9606,7 @@
       <c r="R17" s="153"/>
       <c r="S17" s="153"/>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A18" s="55">
         <v>3255104</v>
       </c>
@@ -9645,7 +9645,7 @@
       <c r="R18" s="153"/>
       <c r="S18" s="153"/>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A19" s="55">
         <v>3211127</v>
       </c>
@@ -9684,7 +9684,7 @@
       <c r="R19" s="153"/>
       <c r="S19" s="153"/>
     </row>
-    <row r="20" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="55">
         <v>3231201</v>
       </c>
@@ -9723,7 +9723,7 @@
       <c r="R20" s="153"/>
       <c r="S20" s="153"/>
     </row>
-    <row r="21" spans="1:62" s="117" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" s="117" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="55">
         <v>3231201</v>
       </c>
@@ -9811,7 +9811,7 @@
       <c r="BI21" s="116"/>
       <c r="BJ21" s="116"/>
     </row>
-    <row r="22" spans="1:62" s="117" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" s="117" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A22" s="55">
         <v>3231201</v>
       </c>
@@ -9899,7 +9899,7 @@
       <c r="BI22" s="116"/>
       <c r="BJ22" s="116"/>
     </row>
-    <row r="23" spans="1:62" s="117" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" s="117" customFormat="1" ht="51" x14ac:dyDescent="0.3">
       <c r="A23" s="55">
         <v>3231201</v>
       </c>
@@ -9987,7 +9987,7 @@
       <c r="BI23" s="116"/>
       <c r="BJ23" s="116"/>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A24" s="55">
         <v>3211109</v>
       </c>
@@ -10026,7 +10026,7 @@
       <c r="R24" s="153"/>
       <c r="S24" s="153"/>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>3256103</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="R25" s="153"/>
       <c r="S25" s="153"/>
     </row>
-    <row r="26" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="55">
         <v>3257101</v>
       </c>
@@ -10112,7 +10112,7 @@
       <c r="R26" s="153"/>
       <c r="S26" s="153"/>
     </row>
-    <row r="27" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A27" s="56">
         <v>3111332</v>
       </c>
@@ -10151,7 +10151,7 @@
       <c r="R27" s="153"/>
       <c r="S27" s="153"/>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A28" s="56">
         <v>3111332</v>
       </c>
@@ -10190,7 +10190,7 @@
       <c r="R28" s="153"/>
       <c r="S28" s="153"/>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A29" s="56">
         <v>3111332</v>
       </c>
@@ -10229,7 +10229,7 @@
       <c r="R29" s="153"/>
       <c r="S29" s="153"/>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A30" s="55">
         <v>3257104</v>
       </c>
@@ -10268,7 +10268,7 @@
       <c r="R30" s="153"/>
       <c r="S30" s="153"/>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A31" s="55">
         <v>3255101</v>
       </c>
@@ -10307,7 +10307,7 @@
       <c r="R31" s="153"/>
       <c r="S31" s="153"/>
     </row>
-    <row r="32" spans="1:62" s="195" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" s="195" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="233">
         <v>3256101</v>
       </c>
@@ -10389,7 +10389,7 @@
       <c r="BI32" s="194"/>
       <c r="BJ32" s="194"/>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>3258101</v>
       </c>
@@ -10428,7 +10428,7 @@
       <c r="R33" s="153"/>
       <c r="S33" s="153"/>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
         <v>3258102</v>
       </c>
@@ -10467,7 +10467,7 @@
       <c r="R34" s="153"/>
       <c r="S34" s="153"/>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>3258103</v>
       </c>
@@ -10506,7 +10506,7 @@
       <c r="R35" s="153"/>
       <c r="S35" s="153"/>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A36" s="55">
         <v>3258105</v>
       </c>
@@ -10545,7 +10545,7 @@
       <c r="R36" s="153"/>
       <c r="S36" s="153"/>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>3258107</v>
       </c>
@@ -10584,7 +10584,7 @@
       <c r="R37" s="153"/>
       <c r="S37" s="153"/>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A38" s="55">
         <v>3258106</v>
       </c>
@@ -10623,7 +10623,7 @@
       <c r="R38" s="153"/>
       <c r="S38" s="153"/>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A39" s="55">
         <v>3258105</v>
       </c>
@@ -10662,7 +10662,7 @@
       <c r="R39" s="153"/>
       <c r="S39" s="153"/>
     </row>
-    <row r="40" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="239">
         <v>3258114</v>
       </c>
@@ -10709,7 +10709,7 @@
       <c r="R40" s="153"/>
       <c r="S40" s="153"/>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A41" s="55">
         <v>3258128</v>
       </c>
@@ -10748,7 +10748,7 @@
       <c r="R41" s="153"/>
       <c r="S41" s="153"/>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A42" s="55">
         <v>3258107</v>
       </c>
@@ -10787,7 +10787,7 @@
       <c r="R42" s="153"/>
       <c r="S42" s="153"/>
     </row>
-    <row r="43" spans="1:62" s="195" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:62" s="195" customFormat="1" ht="67.2" x14ac:dyDescent="0.35">
       <c r="A43" s="227">
         <v>4112101</v>
       </c>
@@ -10869,7 +10869,7 @@
       <c r="BI43" s="194"/>
       <c r="BJ43" s="194"/>
     </row>
-    <row r="44" spans="1:62" s="195" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62" s="195" customFormat="1" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A44" s="227">
         <v>4112101</v>
       </c>
@@ -10947,7 +10947,7 @@
       <c r="BI44" s="194"/>
       <c r="BJ44" s="194"/>
     </row>
-    <row r="45" spans="1:62" s="195" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62" s="195" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="231">
         <v>4112102</v>
       </c>
@@ -11025,7 +11025,7 @@
       <c r="BI45" s="194"/>
       <c r="BJ45" s="194"/>
     </row>
-    <row r="46" spans="1:62" s="195" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" s="195" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="231">
         <v>4112316</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="BI46" s="194"/>
       <c r="BJ46" s="194"/>
     </row>
-    <row r="47" spans="1:62" s="195" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" s="195" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A47" s="231">
         <v>4112316</v>
       </c>
@@ -11181,7 +11181,7 @@
       <c r="BI47" s="194"/>
       <c r="BJ47" s="194"/>
     </row>
-    <row r="48" spans="1:62" s="195" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:62" s="195" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="231">
         <v>4112304</v>
       </c>
@@ -11259,7 +11259,7 @@
       <c r="BI48" s="194"/>
       <c r="BJ48" s="194"/>
     </row>
-    <row r="49" spans="1:62" s="195" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:62" s="195" customFormat="1" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A49" s="231">
         <v>4112304</v>
       </c>
@@ -11337,7 +11337,7 @@
       <c r="BI49" s="194"/>
       <c r="BJ49" s="194"/>
     </row>
-    <row r="50" spans="1:62" s="195" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:62" s="195" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A50" s="231">
         <v>4112304</v>
       </c>
@@ -11419,7 +11419,7 @@
       <c r="BI50" s="194"/>
       <c r="BJ50" s="194"/>
     </row>
-    <row r="51" spans="1:62" s="195" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:62" s="195" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A51" s="231">
         <v>4112202</v>
       </c>
@@ -11497,7 +11497,7 @@
       <c r="BI51" s="194"/>
       <c r="BJ51" s="194"/>
     </row>
-    <row r="52" spans="1:62" s="195" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:62" s="195" customFormat="1" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A52" s="231">
         <v>4112202</v>
       </c>
@@ -11575,7 +11575,7 @@
       <c r="BI52" s="194"/>
       <c r="BJ52" s="194"/>
     </row>
-    <row r="53" spans="1:62" s="195" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:62" s="195" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="231">
         <v>4112202</v>
       </c>
@@ -11653,7 +11653,7 @@
       <c r="BI53" s="194"/>
       <c r="BJ53" s="194"/>
     </row>
-    <row r="54" spans="1:62" s="195" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:62" s="195" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A54" s="231">
         <v>4112202</v>
       </c>
@@ -11731,7 +11731,7 @@
       <c r="BI54" s="194"/>
       <c r="BJ54" s="194"/>
     </row>
-    <row r="55" spans="1:62" s="195" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:62" s="195" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="227">
         <v>4112314</v>
       </c>
@@ -11809,7 +11809,7 @@
       <c r="BI55" s="194"/>
       <c r="BJ55" s="194"/>
     </row>
-    <row r="56" spans="1:62" s="195" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:62" s="195" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="227">
         <v>4112303</v>
       </c>
@@ -11891,7 +11891,7 @@
       <c r="BI56" s="194"/>
       <c r="BJ56" s="194"/>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A57" s="60">
         <v>4141101</v>
       </c>
@@ -11930,7 +11930,7 @@
       <c r="R57" s="153"/>
       <c r="S57" s="153"/>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A58" s="61">
         <v>4111306</v>
       </c>
@@ -11975,7 +11975,7 @@
       <c r="R58" s="153"/>
       <c r="S58" s="153"/>
     </row>
-    <row r="59" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A59" s="61">
         <v>4111307</v>
       </c>
@@ -12022,7 +12022,7 @@
       <c r="R59" s="153"/>
       <c r="S59" s="153"/>
     </row>
-    <row r="60" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A60" s="61">
         <v>4111307</v>
       </c>
@@ -12069,7 +12069,7 @@
       <c r="R60" s="153"/>
       <c r="S60" s="153"/>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A61" s="61">
         <v>4111307</v>
       </c>
@@ -12116,7 +12116,7 @@
       <c r="R61" s="153"/>
       <c r="S61" s="153"/>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A62" s="58">
         <v>4111201</v>
       </c>
@@ -12163,7 +12163,7 @@
       <c r="R62" s="153"/>
       <c r="S62" s="153"/>
     </row>
-    <row r="63" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A63" s="58">
         <v>4111201</v>
       </c>
@@ -12210,7 +12210,7 @@
       <c r="R63" s="153"/>
       <c r="S63" s="153"/>
     </row>
-    <row r="64" spans="1:62" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:62" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A64" s="58">
         <v>4111201</v>
       </c>
@@ -12257,7 +12257,7 @@
       <c r="R64" s="153"/>
       <c r="S64" s="153"/>
     </row>
-    <row r="65" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A65" s="58">
         <v>4111201</v>
       </c>
@@ -12304,7 +12304,7 @@
       <c r="R65" s="153"/>
       <c r="S65" s="153"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="58">
         <v>4111201</v>
       </c>
@@ -12351,7 +12351,7 @@
       <c r="R66" s="153"/>
       <c r="S66" s="153"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="58">
         <v>4111201</v>
       </c>
@@ -12398,7 +12398,7 @@
       <c r="R67" s="153"/>
       <c r="S67" s="153"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="58">
         <v>4111201</v>
       </c>
@@ -12441,7 +12441,7 @@
       <c r="R68" s="153"/>
       <c r="S68" s="153"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>296</v>
       </c>
@@ -12476,7 +12476,7 @@
       <c r="R69" s="153"/>
       <c r="S69" s="153"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>297</v>
       </c>
@@ -12511,7 +12511,7 @@
       <c r="R70" s="153"/>
       <c r="S70" s="153"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D71" s="185"/>
       <c r="E71" s="185"/>
       <c r="F71" s="185"/>
@@ -12519,15 +12519,15 @@
       <c r="H71" s="52"/>
       <c r="I71" s="52"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H72" s="52"/>
       <c r="I72" s="52"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H73" s="52"/>
       <c r="I73" s="52"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D74" s="71"/>
       <c r="E74" s="71"/>
       <c r="F74" s="71"/>
@@ -12535,7 +12535,7 @@
       <c r="H74" s="52"/>
       <c r="I74" s="52"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D75" s="71"/>
       <c r="E75" s="71"/>
       <c r="F75" s="71"/>
@@ -12543,7 +12543,7 @@
       <c r="H75" s="52"/>
       <c r="I75" s="52"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="71"/>
@@ -12551,7 +12551,7 @@
       <c r="H76" s="52"/>
       <c r="I76" s="52"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D77" s="71"/>
       <c r="E77" s="71"/>
       <c r="F77" s="71"/>
@@ -12559,7 +12559,7 @@
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D78" s="71"/>
       <c r="E78" s="71"/>
       <c r="F78" s="71"/>
@@ -12567,7 +12567,7 @@
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D79" s="71"/>
       <c r="E79" s="71"/>
       <c r="F79" s="71"/>
@@ -12593,19 +12593,19 @@
       <selection activeCell="AA76" sqref="AA76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="247" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
     <col min="3" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
     <col min="8" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="25" max="28" width="12.5703125" style="123" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="123" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="25" max="28" width="12.5546875" style="123" customWidth="1"/>
+    <col min="31" max="31" width="20.44140625" style="123" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="249" t="s">
         <v>223</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="249">
         <v>3111302</v>
       </c>
@@ -12793,7 +12793,7 @@
       <c r="AG2" s="86"/>
       <c r="AH2" s="86"/>
     </row>
-    <row r="3" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="249">
         <v>3111327</v>
       </c>
@@ -12872,7 +12872,7 @@
       <c r="AG3" s="86"/>
       <c r="AH3" s="86"/>
     </row>
-    <row r="4" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="249">
         <v>3111338</v>
       </c>
@@ -12955,7 +12955,7 @@
       <c r="AG4" s="86"/>
       <c r="AH4" s="86"/>
     </row>
-    <row r="5" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="249">
         <v>3241101</v>
       </c>
@@ -13040,7 +13040,7 @@
       <c r="AG5" s="91"/>
       <c r="AH5" s="91"/>
     </row>
-    <row r="6" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="249">
         <v>3211129</v>
       </c>
@@ -13127,7 +13127,7 @@
       <c r="AG6" s="90"/>
       <c r="AH6" s="90"/>
     </row>
-    <row r="7" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="249">
         <v>3821103</v>
       </c>
@@ -13214,7 +13214,7 @@
       <c r="AG7" s="90"/>
       <c r="AH7" s="90"/>
     </row>
-    <row r="8" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="249">
         <v>3211119</v>
       </c>
@@ -13301,7 +13301,7 @@
       <c r="AG8" s="90"/>
       <c r="AH8" s="90"/>
     </row>
-    <row r="9" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="249">
         <v>3211120</v>
       </c>
@@ -13382,7 +13382,7 @@
       <c r="AG9" s="90"/>
       <c r="AH9" s="90"/>
     </row>
-    <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="249">
         <v>3211117</v>
       </c>
@@ -13463,7 +13463,7 @@
       <c r="AG10" s="90"/>
       <c r="AH10" s="90"/>
     </row>
-    <row r="11" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="249">
         <v>3221104</v>
       </c>
@@ -13546,7 +13546,7 @@
       <c r="AG11" s="86"/>
       <c r="AH11" s="86"/>
     </row>
-    <row r="12" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="249">
         <v>3211115</v>
       </c>
@@ -13631,7 +13631,7 @@
       <c r="AG12" s="90"/>
       <c r="AH12" s="90"/>
     </row>
-    <row r="13" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="249">
         <v>3211113</v>
       </c>
@@ -13716,7 +13716,7 @@
       <c r="AG13" s="90"/>
       <c r="AH13" s="90"/>
     </row>
-    <row r="14" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="249">
         <v>3243102</v>
       </c>
@@ -13801,7 +13801,7 @@
       <c r="AG14" s="90"/>
       <c r="AH14" s="90"/>
     </row>
-    <row r="15" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="249">
         <v>3243101</v>
       </c>
@@ -13888,7 +13888,7 @@
       <c r="AG15" s="90"/>
       <c r="AH15" s="90"/>
     </row>
-    <row r="16" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="249">
         <v>3221108</v>
       </c>
@@ -13967,7 +13967,7 @@
       <c r="AG16" s="86"/>
       <c r="AH16" s="86"/>
     </row>
-    <row r="17" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="249">
         <v>3255102</v>
       </c>
@@ -14052,7 +14052,7 @@
       <c r="AG17" s="90"/>
       <c r="AH17" s="90"/>
     </row>
-    <row r="18" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="249">
         <v>3255104</v>
       </c>
@@ -14139,7 +14139,7 @@
       <c r="AG18" s="90"/>
       <c r="AH18" s="90"/>
     </row>
-    <row r="19" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="249">
         <v>3211127</v>
       </c>
@@ -14226,7 +14226,7 @@
       <c r="AG19" s="86"/>
       <c r="AH19" s="86"/>
     </row>
-    <row r="20" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="249">
         <v>3231201</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="AG20" s="90"/>
       <c r="AH20" s="90"/>
     </row>
-    <row r="21" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="249">
         <v>3231201</v>
       </c>
@@ -14396,7 +14396,7 @@
       <c r="AG21" s="90"/>
       <c r="AH21" s="90"/>
     </row>
-    <row r="22" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="249">
         <v>3231201</v>
       </c>
@@ -14487,7 +14487,7 @@
       <c r="AG22" s="90"/>
       <c r="AH22" s="90"/>
     </row>
-    <row r="23" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="249">
         <v>3231201</v>
       </c>
@@ -14572,7 +14572,7 @@
       <c r="AG23" s="90"/>
       <c r="AH23" s="90"/>
     </row>
-    <row r="24" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="249">
         <v>3211109</v>
       </c>
@@ -14655,7 +14655,7 @@
       <c r="AG24" s="86"/>
       <c r="AH24" s="86"/>
     </row>
-    <row r="25" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="249">
         <v>3256103</v>
       </c>
@@ -14734,7 +14734,7 @@
       <c r="AG25" s="90"/>
       <c r="AH25" s="90"/>
     </row>
-    <row r="26" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="249">
         <v>3257101</v>
       </c>
@@ -14820,7 +14820,7 @@
       <c r="AG26" s="86"/>
       <c r="AH26" s="86"/>
     </row>
-    <row r="27" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="249">
         <v>3111332</v>
       </c>
@@ -14903,7 +14903,7 @@
       <c r="AG27" s="90"/>
       <c r="AH27" s="90"/>
     </row>
-    <row r="28" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="249">
         <v>3111332</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="AG28" s="90"/>
       <c r="AH28" s="90"/>
     </row>
-    <row r="29" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="249">
         <v>3111332</v>
       </c>
@@ -15061,7 +15061,7 @@
       <c r="AG29" s="90"/>
       <c r="AH29" s="90"/>
     </row>
-    <row r="30" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="249">
         <v>3257104</v>
       </c>
@@ -15140,7 +15140,7 @@
       <c r="AG30" s="90"/>
       <c r="AH30" s="90"/>
     </row>
-    <row r="31" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="249">
         <v>3255101</v>
       </c>
@@ -15225,7 +15225,7 @@
       <c r="AG31" s="86"/>
       <c r="AH31" s="86"/>
     </row>
-    <row r="32" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="249">
         <v>3256101</v>
       </c>
@@ -15314,7 +15314,7 @@
       <c r="AG32" s="91"/>
       <c r="AH32" s="91"/>
     </row>
-    <row r="33" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="249">
         <v>3258101</v>
       </c>
@@ -15401,7 +15401,7 @@
       <c r="AG33" s="90"/>
       <c r="AH33" s="90"/>
     </row>
-    <row r="34" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="249">
         <v>3258102</v>
       </c>
@@ -15480,7 +15480,7 @@
       <c r="AG34" s="90"/>
       <c r="AH34" s="90"/>
     </row>
-    <row r="35" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="249">
         <v>3258103</v>
       </c>
@@ -15561,7 +15561,7 @@
       <c r="AG35" s="90"/>
       <c r="AH35" s="90"/>
     </row>
-    <row r="36" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="249">
         <v>3258105</v>
       </c>
@@ -15648,7 +15648,7 @@
       <c r="AG36" s="86"/>
       <c r="AH36" s="86"/>
     </row>
-    <row r="37" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="249">
         <v>3258107</v>
       </c>
@@ -15727,7 +15727,7 @@
       <c r="AG37" s="86"/>
       <c r="AH37" s="86"/>
     </row>
-    <row r="38" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="249">
         <v>3258106</v>
       </c>
@@ -15806,7 +15806,7 @@
       <c r="AG38" s="90"/>
       <c r="AH38" s="90"/>
     </row>
-    <row r="39" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="249">
         <v>3258105</v>
       </c>
@@ -15889,7 +15889,7 @@
       <c r="AG39" s="86"/>
       <c r="AH39" s="86"/>
     </row>
-    <row r="40" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="249">
         <v>3258114</v>
       </c>
@@ -15978,7 +15978,7 @@
       <c r="AG40" s="86"/>
       <c r="AH40" s="86"/>
     </row>
-    <row r="41" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="249">
         <v>3258128</v>
       </c>
@@ -16057,7 +16057,7 @@
       <c r="AG41" s="86"/>
       <c r="AH41" s="86"/>
     </row>
-    <row r="42" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="249">
         <v>3258107</v>
       </c>
@@ -16136,7 +16136,7 @@
       <c r="AG42" s="98"/>
       <c r="AH42" s="98"/>
     </row>
-    <row r="43" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="249">
         <v>4112101</v>
       </c>
@@ -16215,7 +16215,7 @@
       <c r="AG43" s="98"/>
       <c r="AH43" s="98"/>
     </row>
-    <row r="44" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="249">
         <v>4112101</v>
       </c>
@@ -16294,7 +16294,7 @@
       <c r="AG44" s="84"/>
       <c r="AH44" s="99"/>
     </row>
-    <row r="45" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="249">
         <v>4112102</v>
       </c>
@@ -16373,7 +16373,7 @@
       <c r="AG45" s="99"/>
       <c r="AH45" s="99"/>
     </row>
-    <row r="46" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="249">
         <v>4112316</v>
       </c>
@@ -16452,7 +16452,7 @@
       <c r="AG46" s="99"/>
       <c r="AH46" s="99"/>
     </row>
-    <row r="47" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="249">
         <v>4112316</v>
       </c>
@@ -16531,7 +16531,7 @@
       <c r="AG47" s="99"/>
       <c r="AH47" s="99"/>
     </row>
-    <row r="48" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="249">
         <v>4112304</v>
       </c>
@@ -16610,7 +16610,7 @@
       <c r="AG48" s="99"/>
       <c r="AH48" s="99"/>
     </row>
-    <row r="49" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="249">
         <v>4112304</v>
       </c>
@@ -16689,7 +16689,7 @@
       <c r="AG49" s="99"/>
       <c r="AH49" s="99"/>
     </row>
-    <row r="50" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="249">
         <v>4112304</v>
       </c>
@@ -16768,7 +16768,7 @@
       <c r="AG50" s="99"/>
       <c r="AH50" s="99"/>
     </row>
-    <row r="51" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="249">
         <v>4112202</v>
       </c>
@@ -16847,7 +16847,7 @@
       <c r="AG51" s="98"/>
       <c r="AH51" s="98"/>
     </row>
-    <row r="52" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="249">
         <v>4112202</v>
       </c>
@@ -16926,7 +16926,7 @@
       <c r="AG52" s="98"/>
       <c r="AH52" s="98"/>
     </row>
-    <row r="53" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="249">
         <v>4112202</v>
       </c>
@@ -17005,7 +17005,7 @@
       <c r="AG53" s="98"/>
       <c r="AH53" s="98"/>
     </row>
-    <row r="54" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="249">
         <v>4112202</v>
       </c>
@@ -17084,7 +17084,7 @@
       <c r="AG54" s="98"/>
       <c r="AH54" s="98"/>
     </row>
-    <row r="55" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="249">
         <v>4112314</v>
       </c>
@@ -17163,7 +17163,7 @@
       <c r="AG55" s="98"/>
       <c r="AH55" s="98"/>
     </row>
-    <row r="56" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="249">
         <v>4112303</v>
       </c>
@@ -17242,7 +17242,7 @@
       <c r="AG56" s="98"/>
       <c r="AH56" s="98"/>
     </row>
-    <row r="57" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="249">
         <v>4141101</v>
       </c>
@@ -17321,7 +17321,7 @@
       <c r="AG57" s="99"/>
       <c r="AH57" s="99"/>
     </row>
-    <row r="58" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="249">
         <v>4111306</v>
       </c>
@@ -17402,7 +17402,7 @@
       <c r="AG58" s="99"/>
       <c r="AH58" s="99"/>
     </row>
-    <row r="59" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="249">
         <v>4111307</v>
       </c>
@@ -17483,7 +17483,7 @@
       <c r="AG59" s="99"/>
       <c r="AH59" s="99"/>
     </row>
-    <row r="60" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="249">
         <v>4111307</v>
       </c>
@@ -17568,7 +17568,7 @@
       <c r="AG60" s="99"/>
       <c r="AH60" s="99"/>
     </row>
-    <row r="61" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="249">
         <v>4111307</v>
       </c>
@@ -17649,7 +17649,7 @@
       <c r="AG61" s="90"/>
       <c r="AH61" s="90"/>
     </row>
-    <row r="62" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="249">
         <v>4111201</v>
       </c>
@@ -17730,7 +17730,7 @@
       <c r="AG62" s="86"/>
       <c r="AH62" s="86"/>
     </row>
-    <row r="63" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="249">
         <v>4111201</v>
       </c>
@@ -17811,7 +17811,7 @@
       <c r="AG63" s="99"/>
       <c r="AH63" s="99"/>
     </row>
-    <row r="64" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="249">
         <v>4111201</v>
       </c>
@@ -17892,7 +17892,7 @@
       <c r="AG64" s="99"/>
       <c r="AH64" s="99"/>
     </row>
-    <row r="65" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="249">
         <v>4111201</v>
       </c>
@@ -17973,7 +17973,7 @@
       <c r="AG65" s="99"/>
       <c r="AH65" s="99"/>
     </row>
-    <row r="66" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="249">
         <v>4111201</v>
       </c>
@@ -18054,7 +18054,7 @@
       <c r="AG66" s="98"/>
       <c r="AH66" s="98"/>
     </row>
-    <row r="67" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="249">
         <v>4111201</v>
       </c>
@@ -18135,7 +18135,7 @@
       <c r="AG67" s="99"/>
       <c r="AH67" s="99"/>
     </row>
-    <row r="68" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="249">
         <v>4111201</v>
       </c>
@@ -18216,7 +18216,7 @@
       <c r="AG68" s="99"/>
       <c r="AH68" s="99"/>
     </row>
-    <row r="69" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="249" t="s">
         <v>296</v>
       </c>
@@ -18283,7 +18283,7 @@
       <c r="AG69" s="50"/>
       <c r="AH69" s="50"/>
     </row>
-    <row r="70" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="249" t="s">
         <v>297</v>
       </c>
@@ -18368,29 +18368,29 @@
       <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="70" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="16.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="16" style="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="17.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
@@ -18436,7 +18436,7 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="50" t="s">
@@ -18516,7 +18516,7 @@
       <c r="Q3" s="278"/>
       <c r="R3" s="278"/>
     </row>
-    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -18570,7 +18570,7 @@
         <v>11.6104</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -18626,7 +18626,7 @@
         <v>11.68961</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>34.208399999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>252.5991765</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>0.37058999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>9.2539999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -18874,7 +18874,7 @@
         <v>3.8519999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>3.47105</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -18964,7 +18964,7 @@
         <v>0.40758</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>2.7717200000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>5.4251399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>19.904620000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>0.10196</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -19210,7 +19210,7 @@
         <v>3.6697500000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -19266,7 +19266,7 @@
         <v>15.35078</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>9.9080000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -19370,7 +19370,7 @@
         <v>91.924610000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="41" t="s">
@@ -19394,7 +19394,7 @@
       <c r="Q21" s="278"/>
       <c r="R21" s="278"/>
     </row>
-    <row r="22" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="51" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="41" t="s">
@@ -19418,7 +19418,7 @@
       <c r="Q22" s="278"/>
       <c r="R22" s="278"/>
     </row>
-    <row r="23" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="51" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="41" t="s">
@@ -19442,7 +19442,7 @@
       <c r="Q23" s="278"/>
       <c r="R23" s="278"/>
     </row>
-    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>4.2466499999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="78" t="s">
@@ -19586,7 +19586,7 @@
       <c r="Q27" s="278"/>
       <c r="R27" s="278"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="50" t="s">
@@ -19610,7 +19610,7 @@
       <c r="Q28" s="278"/>
       <c r="R28" s="278"/>
     </row>
-    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>5.5179600000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>21.01211</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -19746,7 +19746,7 @@
         <v>7.6388699999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>299.93044500000002</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>27</v>
       </c>
@@ -19858,7 +19858,7 @@
         <v>15.00455</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -19902,7 +19902,7 @@
         <v>0.49260999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>1.74404</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>30</v>
       </c>
@@ -19998,7 +19998,7 @@
         <v>0.33738000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -20034,7 +20034,7 @@
         <v>9.9132899999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>4.9831599999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>33</v>
       </c>
@@ -20114,7 +20114,7 @@
         <v>0.49907000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>38</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>2.9944600000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>39</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="34" t="s">
@@ -20310,7 +20310,7 @@
       <c r="Q45" s="281"/>
       <c r="R45" s="278"/>
     </row>
-    <row r="46" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="36" t="s">
@@ -20334,7 +20334,7 @@
       <c r="Q46" s="281"/>
       <c r="R46" s="278"/>
     </row>
-    <row r="47" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="36" t="s">
@@ -20358,7 +20358,7 @@
       <c r="Q47" s="281"/>
       <c r="R47" s="278"/>
     </row>
-    <row r="48" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="15"/>
       <c r="C48" s="35" t="s">
@@ -20382,7 +20382,7 @@
       <c r="Q48" s="281"/>
       <c r="R48" s="278"/>
     </row>
-    <row r="49" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="15"/>
       <c r="C49" s="34" t="s">
@@ -20406,7 +20406,7 @@
       <c r="Q49" s="281"/>
       <c r="R49" s="278"/>
     </row>
-    <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>41</v>
       </c>
@@ -20440,7 +20440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="77"/>
       <c r="C51" s="47" t="s">
@@ -20464,7 +20464,7 @@
       <c r="Q51" s="281"/>
       <c r="R51" s="278"/>
     </row>
-    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="77"/>
       <c r="C52" s="41" t="s">
@@ -20488,7 +20488,7 @@
       <c r="Q52" s="281"/>
       <c r="R52" s="278"/>
     </row>
-    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="77"/>
       <c r="C53" s="41" t="s">
@@ -20512,7 +20512,7 @@
       <c r="Q53" s="281"/>
       <c r="R53" s="278"/>
     </row>
-    <row r="54" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="77"/>
       <c r="C54" s="46" t="s">
@@ -20536,7 +20536,7 @@
       <c r="Q54" s="281"/>
       <c r="R54" s="278"/>
     </row>
-    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>43</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>5.9669999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>44</v>
       </c>
@@ -20610,7 +20610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>45</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>3879.9</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>46</v>
       </c>
@@ -20682,7 +20682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>47</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>48</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>49</v>
       </c>
@@ -20798,7 +20798,7 @@
         <v>777.67146369999989</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="22">
         <v>50</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>553.59507129999997</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A63" s="75">
         <v>51</v>
       </c>
@@ -20878,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A64" s="75">
         <v>52</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="32.4" x14ac:dyDescent="0.35">
       <c r="A65" s="75">
         <v>53</v>
       </c>
@@ -20942,7 +20942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A66" s="75">
         <v>54</v>
       </c>
@@ -20974,7 +20974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="75">
         <v>55</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A68" s="76">
         <v>56</v>
       </c>
@@ -21038,7 +21038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="18" t="s">
@@ -21099,17 +21099,17 @@
         <v>6046.4836565000005</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O70" s="10"/>
     </row>
-    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="J71" s="16"/>
       <c r="K71" s="14"/>
       <c r="M71" s="13"/>
       <c r="N71" s="12"/>
       <c r="O71" s="10"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>36</v>
       </c>
@@ -21118,7 +21118,7 @@
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
     </row>
-    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B73" s="27" t="s">
         <v>95</v>
       </c>
@@ -21130,7 +21130,7 @@
       <c r="K73" s="10"/>
       <c r="M73" s="10"/>
     </row>
-    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B74" s="27" t="s">
         <v>96</v>
       </c>
@@ -21144,7 +21144,7 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B75" s="27" t="s">
         <v>97</v>
       </c>
@@ -21155,7 +21155,7 @@
       <c r="E75" s="73"/>
       <c r="J75" s="10"/>
     </row>
-    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B76" s="28" t="s">
         <v>98</v>
       </c>
@@ -21176,7 +21176,7 @@
       <c r="Q76" s="26"/>
       <c r="R76" s="26"/>
     </row>
-    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B77" s="30"/>
       <c r="C77" s="31">
         <f>SUM(C73:C76)</f>
@@ -21200,7 +21200,7 @@
         <v>659250000</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
       <c r="D78" s="293"/>
@@ -21222,7 +21222,7 @@
       </c>
       <c r="R78" s="26"/>
     </row>
-    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
       <c r="D79" s="293"/>
@@ -21243,7 +21243,7 @@
         <v>54601634.349999905</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
     </row>
@@ -21272,24 +21272,24 @@
       <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="53" customWidth="1"/>
-    <col min="2" max="2" width="92.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="70" customWidth="1"/>
-    <col min="4" max="6" width="18.85546875" style="72" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="92.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="70" customWidth="1"/>
+    <col min="4" max="6" width="18.88671875" style="72" customWidth="1"/>
     <col min="7" max="7" width="24" style="72" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="72" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" style="72" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="72" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" style="72" customWidth="1"/>
     <col min="10" max="10" width="22" style="72" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="72" customWidth="1"/>
-    <col min="12" max="15" width="23.28515625" style="72" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="37" hidden="1" customWidth="1"/>
-    <col min="17" max="67" width="9.140625" style="37"/>
-    <col min="68" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="22.33203125" style="72" customWidth="1"/>
+    <col min="12" max="15" width="23.33203125" style="72" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="37" hidden="1" customWidth="1"/>
+    <col min="17" max="67" width="9.109375" style="37"/>
+    <col min="68" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="223" t="s">
         <v>196</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="201">
         <v>3111302</v>
       </c>
@@ -21366,7 +21366,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="201">
         <v>3111327</v>
       </c>
@@ -21392,7 +21392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="201">
         <v>3111338</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:67" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:67" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="202">
         <v>3241101</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:67" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="202">
         <v>3211129</v>
       </c>
@@ -21480,7 +21480,7 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:67" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="202">
         <v>3821103</v>
       </c>
@@ -21510,7 +21510,7 @@
         <v>359.08</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="197" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" s="197" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="203">
         <v>3211119</v>
       </c>
@@ -21591,7 +21591,7 @@
       <c r="BN8" s="196"/>
       <c r="BO8" s="196"/>
     </row>
-    <row r="9" spans="1:67" s="195" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:67" s="195" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="204">
         <v>3211120</v>
       </c>
@@ -21670,7 +21670,7 @@
       <c r="BN9" s="194"/>
       <c r="BO9" s="194"/>
     </row>
-    <row r="10" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="202">
         <v>3211117</v>
       </c>
@@ -21700,7 +21700,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="202">
         <v>3221104</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="202">
         <v>3211115</v>
       </c>
@@ -21758,7 +21758,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="13" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="202">
         <v>3211113</v>
       </c>
@@ -21788,7 +21788,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="202">
         <v>3243102</v>
       </c>
@@ -21818,7 +21818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="202">
         <v>3243101</v>
       </c>
@@ -21846,7 +21846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="202">
         <v>3221108</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="202">
         <v>3255102</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="202">
         <v>3255104</v>
       </c>
@@ -21932,7 +21932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="195" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:67" s="195" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="204">
         <v>3211127</v>
       </c>
@@ -22013,7 +22013,7 @@
       <c r="BN19" s="194"/>
       <c r="BO19" s="194"/>
     </row>
-    <row r="20" spans="1:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="202">
         <v>3231201</v>
       </c>
@@ -22039,7 +22039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:67" ht="42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:67" ht="42" x14ac:dyDescent="0.4">
       <c r="A21" s="202">
         <v>3231201</v>
       </c>
@@ -22067,7 +22067,7 @@
         <v>196.17</v>
       </c>
     </row>
-    <row r="22" spans="1:67" ht="84" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:67" ht="84" x14ac:dyDescent="0.4">
       <c r="A22" s="202">
         <v>3231201</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>677.14</v>
       </c>
     </row>
-    <row r="23" spans="1:67" ht="84" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:67" ht="84" x14ac:dyDescent="0.4">
       <c r="A23" s="202">
         <v>3231201</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>246.66</v>
       </c>
     </row>
-    <row r="24" spans="1:67" s="195" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:67" s="195" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="204">
         <v>3211109</v>
       </c>
@@ -22198,7 +22198,7 @@
       <c r="BN24" s="194"/>
       <c r="BO24" s="194"/>
     </row>
-    <row r="25" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="202">
         <v>3256103</v>
       </c>
@@ -22226,7 +22226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A26" s="202">
         <v>3257101</v>
       </c>
@@ -22252,7 +22252,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="205">
         <v>3111332</v>
       </c>
@@ -22282,7 +22282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="205">
         <v>3111332</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A29" s="205">
         <v>3111332</v>
       </c>
@@ -22334,7 +22334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:67" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:67" ht="21" x14ac:dyDescent="0.4">
       <c r="A30" s="202">
         <v>3257104</v>
       </c>
@@ -22362,7 +22362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:67" s="195" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:67" s="195" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A31" s="204">
         <v>3255101</v>
       </c>
@@ -22443,7 +22443,7 @@
       <c r="BN31" s="194"/>
       <c r="BO31" s="194"/>
     </row>
-    <row r="32" spans="1:67" s="195" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:67" s="195" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="204">
         <v>3256101</v>
       </c>
@@ -22524,7 +22524,7 @@
       <c r="BN32" s="194"/>
       <c r="BO32" s="194"/>
     </row>
-    <row r="33" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="202">
         <v>3258101</v>
       </c>
@@ -22552,7 +22552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="202">
         <v>3258102</v>
       </c>
@@ -22580,7 +22580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="202">
         <v>3258103</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="202">
         <v>3258105</v>
       </c>
@@ -22640,7 +22640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A37" s="202">
         <v>3258107</v>
       </c>
@@ -22668,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="202">
         <v>3258106</v>
       </c>
@@ -22694,7 +22694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A39" s="202">
         <v>3258105</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A40" s="201">
         <v>3258114</v>
       </c>
@@ -22750,7 +22750,7 @@
         <v>58.25</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A41" s="202">
         <v>3258128</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A42" s="202">
         <v>3258107</v>
       </c>
@@ -22806,7 +22806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="126" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="126" x14ac:dyDescent="0.4">
       <c r="A43" s="206">
         <v>4112101</v>
       </c>
@@ -22832,7 +22832,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A44" s="206">
         <v>4112101</v>
       </c>
@@ -22855,7 +22855,7 @@
       <c r="N44" s="216"/>
       <c r="O44" s="216"/>
     </row>
-    <row r="45" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A45" s="207">
         <v>4112102</v>
       </c>
@@ -22878,7 +22878,7 @@
       <c r="N45" s="216"/>
       <c r="O45" s="216"/>
     </row>
-    <row r="46" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A46" s="208">
         <v>4112316</v>
       </c>
@@ -22901,7 +22901,7 @@
       <c r="N46" s="216"/>
       <c r="O46" s="216"/>
     </row>
-    <row r="47" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A47" s="208">
         <v>4112316</v>
       </c>
@@ -22924,7 +22924,7 @@
       <c r="N47" s="216"/>
       <c r="O47" s="216"/>
     </row>
-    <row r="48" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A48" s="207">
         <v>4112304</v>
       </c>
@@ -22947,7 +22947,7 @@
       <c r="N48" s="216"/>
       <c r="O48" s="216"/>
     </row>
-    <row r="49" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A49" s="207">
         <v>4112304</v>
       </c>
@@ -22970,7 +22970,7 @@
       <c r="N49" s="216"/>
       <c r="O49" s="216"/>
     </row>
-    <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="207">
         <v>4112304</v>
       </c>
@@ -22998,7 +22998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="84" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="84" x14ac:dyDescent="0.4">
       <c r="A51" s="207">
         <v>4112202</v>
       </c>
@@ -23023,7 +23023,7 @@
       <c r="N51" s="216"/>
       <c r="O51" s="216"/>
     </row>
-    <row r="52" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A52" s="207">
         <v>4112202</v>
       </c>
@@ -23046,7 +23046,7 @@
       <c r="N52" s="216"/>
       <c r="O52" s="216"/>
     </row>
-    <row r="53" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A53" s="207">
         <v>4112202</v>
       </c>
@@ -23069,7 +23069,7 @@
       <c r="N53" s="216"/>
       <c r="O53" s="216"/>
     </row>
-    <row r="54" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A54" s="207">
         <v>4112202</v>
       </c>
@@ -23092,7 +23092,7 @@
       <c r="N54" s="216"/>
       <c r="O54" s="216"/>
     </row>
-    <row r="55" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A55" s="206">
         <v>4112314</v>
       </c>
@@ -23115,7 +23115,7 @@
       <c r="N55" s="216"/>
       <c r="O55" s="216"/>
     </row>
-    <row r="56" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A56" s="206">
         <v>4112303</v>
       </c>
@@ -23143,7 +23143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A57" s="209">
         <v>4141101</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>2049.42</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A58" s="210">
         <v>4111306</v>
       </c>
@@ -23197,7 +23197,7 @@
         <v>490.33</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A59" s="210">
         <v>4111307</v>
       </c>
@@ -23225,7 +23225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A60" s="210">
         <v>4111307</v>
       </c>
@@ -23253,7 +23253,7 @@
         <v>8105.58</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="210">
         <v>4111307</v>
       </c>
@@ -23281,7 +23281,7 @@
         <v>3956.08</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A62" s="207">
         <v>4111201</v>
       </c>
@@ -23309,7 +23309,7 @@
         <v>900.73</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A63" s="207">
         <v>4111201</v>
       </c>
@@ -23337,7 +23337,7 @@
         <v>913.26</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A64" s="207">
         <v>4111201</v>
       </c>
@@ -23365,7 +23365,7 @@
         <v>657.55</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" ht="42" x14ac:dyDescent="0.4">
       <c r="A65" s="207">
         <v>4111201</v>
       </c>
@@ -23393,7 +23393,7 @@
         <v>4914.3100000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A66" s="207">
         <v>4111201</v>
       </c>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A67" s="207">
         <v>4111201</v>
       </c>
@@ -23449,7 +23449,7 @@
         <v>348.14</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A68" s="207">
         <v>4111201</v>
       </c>
@@ -23477,7 +23477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A69" s="211" t="s">
         <v>296</v>
       </c>
@@ -23500,7 +23500,7 @@
       <c r="N69" s="216"/>
       <c r="O69" s="216"/>
     </row>
-    <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A70" s="211" t="s">
         <v>297</v>
       </c>
@@ -23523,7 +23523,7 @@
       <c r="N70" s="216"/>
       <c r="O70" s="216"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D71" s="71"/>
       <c r="E71" s="71">
         <f>SUM(E2:E70)</f>
@@ -23540,7 +23540,7 @@
       <c r="N71" s="71"/>
       <c r="O71" s="71"/>
     </row>
-    <row r="72" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="186"/>
       <c r="C72" s="186"/>
       <c r="D72" s="62"/>
@@ -23556,7 +23556,7 @@
       <c r="N72" s="71"/>
       <c r="O72" s="71"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D73" s="71"/>
       <c r="E73" s="71"/>
       <c r="F73" s="71"/>
@@ -23570,7 +23570,7 @@
       <c r="N73" s="71"/>
       <c r="O73" s="71"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D74" s="71"/>
       <c r="E74" s="71"/>
       <c r="F74" s="71"/>
@@ -23584,7 +23584,7 @@
       <c r="N74" s="71"/>
       <c r="O74" s="71"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D75" s="71"/>
       <c r="E75" s="71"/>
       <c r="F75" s="71"/>
@@ -23598,7 +23598,7 @@
       <c r="N75" s="71"/>
       <c r="O75" s="71"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="71"/>
@@ -23612,7 +23612,7 @@
       <c r="N76" s="71"/>
       <c r="O76" s="71"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D77" s="71"/>
       <c r="E77" s="71"/>
       <c r="F77" s="71"/>
@@ -23626,7 +23626,7 @@
       <c r="N77" s="71"/>
       <c r="O77" s="71"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D78" s="71"/>
       <c r="E78" s="71"/>
       <c r="F78" s="71"/>
@@ -23640,7 +23640,7 @@
       <c r="N78" s="71"/>
       <c r="O78" s="71"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D79" s="71"/>
       <c r="E79" s="71"/>
       <c r="F79" s="71"/>
@@ -23673,14 +23673,14 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" style="130" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="123"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" style="130" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="33">
         <v>4111307</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="33">
         <v>4111307</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="33">
         <v>4111307</v>
       </c>
@@ -23708,7 +23708,7 @@
       </c>
       <c r="E3" s="316"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="33">
         <v>4111201</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="33">
         <v>4111201</v>
       </c>
@@ -23730,7 +23730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="33">
         <v>4111201</v>
       </c>
@@ -23739,7 +23739,7 @@
       </c>
       <c r="E6" s="316"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="33">
         <v>4111201</v>
       </c>
@@ -23750,7 +23750,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="33">
         <v>4111201</v>
       </c>
@@ -23761,7 +23761,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
         <v>4111201</v>
       </c>
@@ -23772,7 +23772,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>4111201</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>296</v>
       </c>
@@ -23794,7 +23794,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>297</v>
       </c>
@@ -23805,255 +23805,255 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="316">
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="316">
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" s="316">
         <v>2.9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="316">
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="316">
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="316">
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="316"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="316"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="316"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="316">
         <v>0.16</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E25" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E26" s="316"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E27" s="316">
         <v>0.87</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E28" s="316"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E29" s="316"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E30" s="316">
         <v>3.75</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E31" s="316">
         <v>1.25</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E32" s="316">
         <v>66.25</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="316">
         <v>1.77</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="316">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="316">
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" s="316"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="316">
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" s="316"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" s="316"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" s="316"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E46" s="316"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E47" s="316"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E48" s="316"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="316"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="316">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="316"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" s="316"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E54" s="316"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E55" s="316"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E56" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" s="316"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E58" s="316">
         <v>17.5</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E59" s="316">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E60" s="316">
         <v>86.63</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E61" s="316">
         <v>12.5</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E62" s="316">
         <v>15.75</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E63" s="316">
         <v>17.5</v>
       </c>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E64" s="316">
         <v>17.5</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E65" s="316">
         <v>134.75</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E66" s="316">
         <v>2.62</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" s="316">
         <v>8.75</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E68" s="316">
         <v>12.5</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" s="316"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" s="316"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E71" s="123">
         <f>SUM(E2:E70)</f>
         <v>491.44</v>
@@ -24069,26 +24069,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K13" sqref="K13"/>
       <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="70" customWidth="1"/>
-    <col min="4" max="5" width="18.85546875" style="72" customWidth="1"/>
-    <col min="6" max="15" width="18.85546875" style="51" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="37" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="37" customWidth="1"/>
-    <col min="18" max="68" width="9.140625" style="37"/>
-    <col min="69" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.33203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="70" customWidth="1"/>
+    <col min="4" max="5" width="18.88671875" style="72" customWidth="1"/>
+    <col min="6" max="15" width="18.88671875" style="51" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" style="37" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="37" customWidth="1"/>
+    <col min="18" max="68" width="9.109375" style="37"/>
+    <col min="69" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
         <v>196</v>
       </c>
@@ -24135,7 +24135,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
         <v>3111302</v>
       </c>
@@ -24160,7 +24160,7 @@
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
     </row>
-    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
         <v>3111327</v>
       </c>
@@ -24185,7 +24185,7 @@
       <c r="N3" s="50"/>
       <c r="O3" s="50"/>
     </row>
-    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
         <v>3111338</v>
       </c>
@@ -24210,7 +24210,7 @@
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
     </row>
-    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="55">
         <v>3241101</v>
       </c>
@@ -24235,7 +24235,7 @@
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
     </row>
-    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="55">
         <v>3211129</v>
       </c>
@@ -24260,7 +24260,7 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
     </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>3821103</v>
       </c>
@@ -24285,7 +24285,7 @@
       <c r="N7" s="50"/>
       <c r="O7" s="50"/>
     </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="55">
         <v>3211119</v>
       </c>
@@ -24310,7 +24310,7 @@
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
     </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>3211120</v>
       </c>
@@ -24335,7 +24335,7 @@
       <c r="N9" s="50"/>
       <c r="O9" s="50"/>
     </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>3211117</v>
       </c>
@@ -24360,7 +24360,7 @@
       <c r="N10" s="50"/>
       <c r="O10" s="50"/>
     </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>3221104</v>
       </c>
@@ -24385,7 +24385,7 @@
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
     </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="55">
         <v>3211115</v>
       </c>
@@ -24410,7 +24410,7 @@
       <c r="N12" s="50"/>
       <c r="O12" s="50"/>
     </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>3211113</v>
       </c>
@@ -24435,7 +24435,7 @@
       <c r="N13" s="50"/>
       <c r="O13" s="50"/>
     </row>
-    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="55">
         <v>3243102</v>
       </c>
@@ -24460,7 +24460,7 @@
       <c r="N14" s="50"/>
       <c r="O14" s="50"/>
     </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="55">
         <v>3243101</v>
       </c>
@@ -24485,7 +24485,7 @@
       <c r="N15" s="50"/>
       <c r="O15" s="50"/>
     </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="55">
         <v>3221108</v>
       </c>
@@ -24510,7 +24510,7 @@
       <c r="N16" s="50"/>
       <c r="O16" s="50"/>
     </row>
-    <row r="17" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>3255102</v>
       </c>
@@ -24535,7 +24535,7 @@
       <c r="N17" s="50"/>
       <c r="O17" s="50"/>
     </row>
-    <row r="18" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="55">
         <v>3255104</v>
       </c>
@@ -24560,7 +24560,7 @@
       <c r="N18" s="50"/>
       <c r="O18" s="50"/>
     </row>
-    <row r="19" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="55">
         <v>3211127</v>
       </c>
@@ -24585,7 +24585,7 @@
       <c r="N19" s="50"/>
       <c r="O19" s="50"/>
     </row>
-    <row r="20" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55">
         <v>3231201</v>
       </c>
@@ -24610,7 +24610,7 @@
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
     </row>
-    <row r="21" spans="1:68" s="195" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:68" s="195" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="79">
         <v>3231201</v>
       </c>
@@ -24698,7 +24698,7 @@
       <c r="BO21" s="194"/>
       <c r="BP21" s="194"/>
     </row>
-    <row r="22" spans="1:68" s="195" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:68" s="195" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="79">
         <v>3231201</v>
       </c>
@@ -24790,7 +24790,7 @@
       <c r="BO22" s="194"/>
       <c r="BP22" s="194"/>
     </row>
-    <row r="23" spans="1:68" s="195" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:68" s="195" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="79">
         <v>3231201</v>
       </c>
@@ -24878,7 +24878,7 @@
       <c r="BO23" s="194"/>
       <c r="BP23" s="194"/>
     </row>
-    <row r="24" spans="1:68" s="195" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:68" s="195" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="233">
         <v>3211109</v>
       </c>
@@ -24956,7 +24956,7 @@
       <c r="BO24" s="194"/>
       <c r="BP24" s="194"/>
     </row>
-    <row r="25" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>3256103</v>
       </c>
@@ -24981,7 +24981,7 @@
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
     </row>
-    <row r="26" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="55">
         <v>3257101</v>
       </c>
@@ -25006,7 +25006,7 @@
       <c r="N26" s="50"/>
       <c r="O26" s="50"/>
     </row>
-    <row r="27" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="56">
         <v>3111332</v>
       </c>
@@ -25031,7 +25031,7 @@
       <c r="N27" s="50"/>
       <c r="O27" s="50"/>
     </row>
-    <row r="28" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56">
         <v>3111332</v>
       </c>
@@ -25056,7 +25056,7 @@
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
     </row>
-    <row r="29" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56">
         <v>3111332</v>
       </c>
@@ -25081,7 +25081,7 @@
       <c r="N29" s="50"/>
       <c r="O29" s="50"/>
     </row>
-    <row r="30" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="55">
         <v>3257104</v>
       </c>
@@ -25106,7 +25106,7 @@
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
     </row>
-    <row r="31" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="55">
         <v>3255101</v>
       </c>
@@ -25131,7 +25131,7 @@
       <c r="N31" s="50"/>
       <c r="O31" s="50"/>
     </row>
-    <row r="32" spans="1:68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:68" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55">
         <v>3256101</v>
       </c>
@@ -25156,7 +25156,7 @@
       <c r="N32" s="50"/>
       <c r="O32" s="50"/>
     </row>
-    <row r="33" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>3258101</v>
       </c>
@@ -25181,7 +25181,7 @@
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
     </row>
-    <row r="34" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
         <v>3258102</v>
       </c>
@@ -25206,7 +25206,7 @@
       <c r="N34" s="50"/>
       <c r="O34" s="50"/>
     </row>
-    <row r="35" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>3258103</v>
       </c>
@@ -25231,7 +25231,7 @@
       <c r="N35" s="50"/>
       <c r="O35" s="50"/>
     </row>
-    <row r="36" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="55">
         <v>3258105</v>
       </c>
@@ -25256,7 +25256,7 @@
       <c r="N36" s="50"/>
       <c r="O36" s="50"/>
     </row>
-    <row r="37" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>3258107</v>
       </c>
@@ -25281,7 +25281,7 @@
       <c r="N37" s="50"/>
       <c r="O37" s="50"/>
     </row>
-    <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="55">
         <v>3258106</v>
       </c>
@@ -25306,7 +25306,7 @@
       <c r="N38" s="50"/>
       <c r="O38" s="50"/>
     </row>
-    <row r="39" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="55">
         <v>3258105</v>
       </c>
@@ -25331,7 +25331,7 @@
       <c r="N39" s="50"/>
       <c r="O39" s="50"/>
     </row>
-    <row r="40" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="54">
         <v>3258114</v>
       </c>
@@ -25362,7 +25362,7 @@
       <c r="N40" s="104"/>
       <c r="O40" s="104"/>
     </row>
-    <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="55">
         <v>3258128</v>
       </c>
@@ -25387,7 +25387,7 @@
       <c r="N41" s="50"/>
       <c r="O41" s="50"/>
     </row>
-    <row r="42" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="55">
         <v>3258107</v>
       </c>
@@ -25412,7 +25412,7 @@
       <c r="N42" s="50"/>
       <c r="O42" s="50"/>
     </row>
-    <row r="43" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="57">
         <v>4112101</v>
       </c>
@@ -25437,7 +25437,7 @@
       <c r="N43" s="50"/>
       <c r="O43" s="50"/>
     </row>
-    <row r="44" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="57">
         <v>4112101</v>
       </c>
@@ -25462,7 +25462,7 @@
       <c r="N44" s="50"/>
       <c r="O44" s="50"/>
     </row>
-    <row r="45" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="58">
         <v>4112102</v>
       </c>
@@ -25487,7 +25487,7 @@
       <c r="N45" s="50"/>
       <c r="O45" s="50"/>
     </row>
-    <row r="46" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="59">
         <v>4112316</v>
       </c>
@@ -25512,7 +25512,7 @@
       <c r="N46" s="50"/>
       <c r="O46" s="50"/>
     </row>
-    <row r="47" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="59">
         <v>4112316</v>
       </c>
@@ -25537,7 +25537,7 @@
       <c r="N47" s="50"/>
       <c r="O47" s="50"/>
     </row>
-    <row r="48" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="58">
         <v>4112304</v>
       </c>
@@ -25562,7 +25562,7 @@
       <c r="N48" s="50"/>
       <c r="O48" s="50"/>
     </row>
-    <row r="49" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="58">
         <v>4112304</v>
       </c>
@@ -25587,7 +25587,7 @@
       <c r="N49" s="50"/>
       <c r="O49" s="50"/>
     </row>
-    <row r="50" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58">
         <v>4112304</v>
       </c>
@@ -25612,7 +25612,7 @@
       <c r="N50" s="50"/>
       <c r="O50" s="50"/>
     </row>
-    <row r="51" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="58">
         <v>4112202</v>
       </c>
@@ -25637,7 +25637,7 @@
       <c r="N51" s="50"/>
       <c r="O51" s="50"/>
     </row>
-    <row r="52" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="58">
         <v>4112202</v>
       </c>
@@ -25662,7 +25662,7 @@
       <c r="N52" s="50"/>
       <c r="O52" s="50"/>
     </row>
-    <row r="53" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="58">
         <v>4112202</v>
       </c>
@@ -25687,7 +25687,7 @@
       <c r="N53" s="50"/>
       <c r="O53" s="50"/>
     </row>
-    <row r="54" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="58">
         <v>4112202</v>
       </c>
@@ -25712,7 +25712,7 @@
       <c r="N54" s="50"/>
       <c r="O54" s="50"/>
     </row>
-    <row r="55" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="57">
         <v>4112314</v>
       </c>
@@ -25737,7 +25737,7 @@
       <c r="N55" s="50"/>
       <c r="O55" s="50"/>
     </row>
-    <row r="56" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="57">
         <v>4112303</v>
       </c>
@@ -25762,7 +25762,7 @@
       <c r="N56" s="50"/>
       <c r="O56" s="50"/>
     </row>
-    <row r="57" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="60">
         <v>4141101</v>
       </c>
@@ -25787,7 +25787,7 @@
       <c r="N57" s="50"/>
       <c r="O57" s="50"/>
     </row>
-    <row r="58" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="61">
         <v>4111306</v>
       </c>
@@ -25820,7 +25820,7 @@
         <v>3738000</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="61">
         <v>4111307</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>28690000</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="61">
         <v>4111307</v>
       </c>
@@ -25890,7 +25890,7 @@
         <v>89325300</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="61">
         <v>4111307</v>
       </c>
@@ -25925,7 +25925,7 @@
         <v>68072400</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="58">
         <v>4111201</v>
       </c>
@@ -25958,7 +25958,7 @@
         <v>28162800</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="58">
         <v>4111201</v>
       </c>
@@ -25993,7 +25993,7 @@
         <v>9744900</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="58">
         <v>4111201</v>
       </c>
@@ -26026,7 +26026,7 @@
         <v>305095000</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="58">
         <v>4111201</v>
       </c>
@@ -26059,7 +26059,7 @@
         <v>65214600</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="58">
         <v>4111201</v>
       </c>
@@ -26086,7 +26086,7 @@
         <v>1654600</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="58">
         <v>4111201</v>
       </c>
@@ -26111,7 +26111,7 @@
       <c r="N67" s="104"/>
       <c r="O67" s="226"/>
     </row>
-    <row r="68" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="58">
         <v>4111201</v>
       </c>
@@ -26136,7 +26136,7 @@
       <c r="N68" s="50"/>
       <c r="O68" s="50"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>296</v>
       </c>
@@ -26161,7 +26161,7 @@
       <c r="N69" s="50"/>
       <c r="O69" s="50"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>297</v>
       </c>
@@ -26186,7 +26186,7 @@
       <c r="N70" s="50"/>
       <c r="O70" s="50"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C71" s="109"/>
       <c r="D71" s="105"/>
       <c r="E71" s="105">
@@ -26204,7 +26204,7 @@
       <c r="N71" s="106"/>
       <c r="O71" s="52"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C72" s="109"/>
       <c r="D72" s="105"/>
       <c r="E72" s="105"/>
@@ -26219,7 +26219,7 @@
       <c r="N72" s="106"/>
       <c r="O72" s="52"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C73" s="109"/>
       <c r="D73" s="105"/>
       <c r="E73" s="105"/>
@@ -26234,7 +26234,7 @@
       <c r="N73" s="106"/>
       <c r="O73" s="52"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C74" s="109"/>
       <c r="D74" s="105"/>
       <c r="E74" s="105"/>
@@ -26249,7 +26249,7 @@
       <c r="N74" s="106"/>
       <c r="O74" s="52"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C75" s="109"/>
       <c r="D75" s="105"/>
       <c r="E75" s="105"/>
@@ -26264,7 +26264,7 @@
       <c r="N75" s="106"/>
       <c r="O75" s="52"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C76" s="109"/>
       <c r="D76" s="105"/>
       <c r="E76" s="105"/>
@@ -26279,7 +26279,7 @@
       <c r="N76" s="106"/>
       <c r="O76" s="52"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C77" s="109"/>
       <c r="D77" s="105"/>
       <c r="E77" s="105"/>
@@ -26294,7 +26294,7 @@
       <c r="N77" s="106"/>
       <c r="O77" s="52"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C78" s="109"/>
       <c r="D78" s="105"/>
       <c r="E78" s="105"/>
@@ -26309,7 +26309,7 @@
       <c r="N78" s="106"/>
       <c r="O78" s="52"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C79" s="109"/>
       <c r="D79" s="105"/>
       <c r="E79" s="105"/>
@@ -26324,7 +26324,7 @@
       <c r="N79" s="106"/>
       <c r="O79" s="52"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C80" s="109"/>
       <c r="D80" s="107"/>
       <c r="E80" s="107"/>
@@ -26338,7 +26338,7 @@
       <c r="M80" s="108"/>
       <c r="N80" s="108"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C81" s="109"/>
     </row>
   </sheetData>
@@ -26359,311 +26359,311 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.140625" style="123"/>
+    <col min="5" max="5" width="9.109375" style="123"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E2" s="316">
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E3" s="316"/>
     </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E4" s="316">
         <v>3.53</v>
       </c>
     </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E5" s="316">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E6" s="316"/>
     </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E7" s="316">
         <v>28.75</v>
       </c>
     </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E8" s="316">
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E9" s="316">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E10" s="316">
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E11" s="316">
         <v>0.16</v>
       </c>
     </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E12" s="316">
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E13" s="316">
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E14" s="316">
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E15" s="316">
         <v>2.9</v>
       </c>
     </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E16" s="316">
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="316">
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="316">
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="316"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="316"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="316"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="316">
         <v>0.16</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E25" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E26" s="316"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E27" s="316">
         <v>0.87</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E28" s="316"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E29" s="316"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E30" s="316">
         <v>3.75</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E31" s="316">
         <v>1.25</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E32" s="316">
         <v>66.25</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="316">
         <v>1.77</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="316">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="316">
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" s="316"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="316">
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" s="316"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" s="316"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" s="316"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E46" s="316"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E47" s="316"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E48" s="316"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="316"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="316">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="316"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" s="316"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E54" s="316"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E55" s="316"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E56" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" s="316"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E58" s="316">
         <v>17.5</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E59" s="316">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E60" s="316">
         <v>86.63</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E61" s="316">
         <v>12.5</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E62" s="316">
         <v>15.75</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E63" s="316">
         <v>17.5</v>
       </c>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E64" s="316">
         <v>17.5</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E65" s="316">
         <v>134.75</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E66" s="316">
         <v>2.62</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" s="316">
         <v>8.75</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E68" s="316">
         <v>12.5</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" s="316"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" s="316"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E71" s="123">
         <f>SUM(E2:E70)</f>
         <v>491.44</v>
@@ -26684,21 +26684,21 @@
       <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="70" customWidth="1"/>
-    <col min="4" max="5" width="18.85546875" style="72" customWidth="1"/>
-    <col min="6" max="15" width="18.85546875" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="70" customWidth="1"/>
+    <col min="4" max="5" width="18.88671875" style="72" customWidth="1"/>
+    <col min="6" max="15" width="18.88671875" style="51" customWidth="1"/>
     <col min="16" max="16" width="17" style="62" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" style="37" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="37" customWidth="1"/>
-    <col min="19" max="69" width="9.140625" style="37"/>
-    <col min="70" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="17.5546875" style="37" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="37" customWidth="1"/>
+    <col min="19" max="69" width="9.109375" style="37"/>
+    <col min="70" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
         <v>196</v>
       </c>
@@ -26745,7 +26745,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
         <v>3111302</v>
       </c>
@@ -26775,7 +26775,7 @@
       <c r="O2" s="88"/>
       <c r="P2" s="72"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
         <v>3111327</v>
       </c>
@@ -26805,7 +26805,7 @@
       <c r="O3" s="88"/>
       <c r="P3" s="72"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
         <v>3111338</v>
       </c>
@@ -26835,7 +26835,7 @@
       <c r="O4" s="88"/>
       <c r="P4" s="72"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="55">
         <v>3241101</v>
       </c>
@@ -26864,7 +26864,7 @@
       <c r="N5" s="93"/>
       <c r="O5" s="94"/>
     </row>
-    <row r="6" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="55">
         <v>3211129</v>
       </c>
@@ -26893,7 +26893,7 @@
       <c r="N6" s="93"/>
       <c r="O6" s="94"/>
     </row>
-    <row r="7" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>3821103</v>
       </c>
@@ -26922,7 +26922,7 @@
       <c r="N7" s="93"/>
       <c r="O7" s="94"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="55">
         <v>3211119</v>
       </c>
@@ -26951,7 +26951,7 @@
       <c r="N8" s="93"/>
       <c r="O8" s="94"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>3211120</v>
       </c>
@@ -26980,7 +26980,7 @@
       <c r="N9" s="93"/>
       <c r="O9" s="89"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>3211117</v>
       </c>
@@ -27009,7 +27009,7 @@
       <c r="N10" s="93"/>
       <c r="O10" s="89"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>3221104</v>
       </c>
@@ -27038,7 +27038,7 @@
       <c r="N11" s="87"/>
       <c r="O11" s="88"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="55">
         <v>3211115</v>
       </c>
@@ -27067,7 +27067,7 @@
       <c r="N12" s="93"/>
       <c r="O12" s="94"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>3211113</v>
       </c>
@@ -27096,7 +27096,7 @@
       <c r="N13" s="93"/>
       <c r="O13" s="94"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="55">
         <v>3243102</v>
       </c>
@@ -27125,7 +27125,7 @@
       <c r="N14" s="93"/>
       <c r="O14" s="94"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="55">
         <v>3243101</v>
       </c>
@@ -27154,7 +27154,7 @@
       <c r="N15" s="93"/>
       <c r="O15" s="94"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="55">
         <v>3221108</v>
       </c>
@@ -27183,7 +27183,7 @@
       <c r="N16" s="87"/>
       <c r="O16" s="85"/>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>3255102</v>
       </c>
@@ -27212,7 +27212,7 @@
       <c r="N17" s="93"/>
       <c r="O17" s="94"/>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A18" s="55">
         <v>3255104</v>
       </c>
@@ -27241,7 +27241,7 @@
       <c r="N18" s="93"/>
       <c r="O18" s="94"/>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A19" s="55">
         <v>3211127</v>
       </c>
@@ -27270,7 +27270,7 @@
       <c r="N19" s="87"/>
       <c r="O19" s="88"/>
     </row>
-    <row r="20" spans="1:69" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="55">
         <v>3231201</v>
       </c>
@@ -27299,7 +27299,7 @@
       <c r="N20" s="93"/>
       <c r="O20" s="94"/>
     </row>
-    <row r="21" spans="1:69" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="55">
         <v>3231201</v>
       </c>
@@ -27328,7 +27328,7 @@
       <c r="N21" s="93"/>
       <c r="O21" s="94"/>
     </row>
-    <row r="22" spans="1:69" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A22" s="55">
         <v>3231201</v>
       </c>
@@ -27357,7 +27357,7 @@
       <c r="N22" s="93"/>
       <c r="O22" s="94"/>
     </row>
-    <row r="23" spans="1:69" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" ht="51" x14ac:dyDescent="0.35">
       <c r="A23" s="55">
         <v>3231201</v>
       </c>
@@ -27386,7 +27386,7 @@
       <c r="N23" s="93"/>
       <c r="O23" s="94"/>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A24" s="55">
         <v>3211109</v>
       </c>
@@ -27415,7 +27415,7 @@
       <c r="N24" s="87"/>
       <c r="O24" s="88"/>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>3256103</v>
       </c>
@@ -27444,7 +27444,7 @@
       <c r="N25" s="93"/>
       <c r="O25" s="89"/>
     </row>
-    <row r="26" spans="1:69" s="195" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" s="195" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="233">
         <v>3257101</v>
       </c>
@@ -27537,7 +27537,7 @@
       <c r="BP26" s="194"/>
       <c r="BQ26" s="194"/>
     </row>
-    <row r="27" spans="1:69" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A27" s="56">
         <v>3111332</v>
       </c>
@@ -27566,7 +27566,7 @@
       <c r="N27" s="93"/>
       <c r="O27" s="89"/>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A28" s="56">
         <v>3111332</v>
       </c>
@@ -27595,7 +27595,7 @@
       <c r="N28" s="93"/>
       <c r="O28" s="89"/>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A29" s="56">
         <v>3111332</v>
       </c>
@@ -27624,7 +27624,7 @@
       <c r="N29" s="93"/>
       <c r="O29" s="94"/>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A30" s="55">
         <v>3257104</v>
       </c>
@@ -27653,7 +27653,7 @@
       <c r="N30" s="93"/>
       <c r="O30" s="89"/>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A31" s="55">
         <v>3255101</v>
       </c>
@@ -27682,7 +27682,7 @@
       <c r="N31" s="93"/>
       <c r="O31" s="94"/>
     </row>
-    <row r="32" spans="1:69" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" s="83" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="79">
         <v>3256101</v>
       </c>
@@ -27763,7 +27763,7 @@
       <c r="BP32" s="82"/>
       <c r="BQ32" s="82"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>3258101</v>
       </c>
@@ -27792,7 +27792,7 @@
       <c r="N33" s="93"/>
       <c r="O33" s="94"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
         <v>3258102</v>
       </c>
@@ -27821,7 +27821,7 @@
       <c r="N34" s="93"/>
       <c r="O34" s="94"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>3258103</v>
       </c>
@@ -27850,7 +27850,7 @@
       <c r="N35" s="93"/>
       <c r="O35" s="94"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="55">
         <v>3258105</v>
       </c>
@@ -27879,7 +27879,7 @@
       <c r="N36" s="87"/>
       <c r="O36" s="88"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>3258107</v>
       </c>
@@ -27908,7 +27908,7 @@
       <c r="N37" s="87"/>
       <c r="O37" s="85"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="55">
         <v>3258106</v>
       </c>
@@ -27937,7 +27937,7 @@
       <c r="N38" s="93"/>
       <c r="O38" s="89"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="55">
         <v>3258105</v>
       </c>
@@ -27966,7 +27966,7 @@
       <c r="N39" s="87"/>
       <c r="O39" s="88"/>
     </row>
-    <row r="40" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="54">
         <v>3258114</v>
       </c>
@@ -27995,7 +27995,7 @@
       <c r="N40" s="87"/>
       <c r="O40" s="85"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="55">
         <v>3258128</v>
       </c>
@@ -28024,7 +28024,7 @@
       <c r="N41" s="87"/>
       <c r="O41" s="85"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="55">
         <v>3258107</v>
       </c>
@@ -28053,7 +28053,7 @@
       <c r="N42" s="101"/>
       <c r="O42" s="96"/>
     </row>
-    <row r="43" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="67.2" x14ac:dyDescent="0.35">
       <c r="A43" s="57">
         <v>4112101</v>
       </c>
@@ -28082,7 +28082,7 @@
       <c r="N43" s="98"/>
       <c r="O43" s="96"/>
     </row>
-    <row r="44" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A44" s="57">
         <v>4112101</v>
       </c>
@@ -28111,7 +28111,7 @@
       <c r="N44" s="99"/>
       <c r="O44" s="97"/>
     </row>
-    <row r="45" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="58">
         <v>4112102</v>
       </c>
@@ -28140,7 +28140,7 @@
       <c r="N45" s="99"/>
       <c r="O45" s="97"/>
     </row>
-    <row r="46" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="59">
         <v>4112316</v>
       </c>
@@ -28169,7 +28169,7 @@
       <c r="N46" s="99"/>
       <c r="O46" s="97"/>
     </row>
-    <row r="47" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A47" s="59">
         <v>4112316</v>
       </c>
@@ -28198,7 +28198,7 @@
       <c r="N47" s="99"/>
       <c r="O47" s="97"/>
     </row>
-    <row r="48" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="58">
         <v>4112304</v>
       </c>
@@ -28227,7 +28227,7 @@
       <c r="N48" s="99"/>
       <c r="O48" s="97"/>
     </row>
-    <row r="49" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A49" s="58">
         <v>4112304</v>
       </c>
@@ -28256,7 +28256,7 @@
       <c r="N49" s="99"/>
       <c r="O49" s="97"/>
     </row>
-    <row r="50" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A50" s="58">
         <v>4112304</v>
       </c>
@@ -28285,7 +28285,7 @@
       <c r="N50" s="99"/>
       <c r="O50" s="97"/>
     </row>
-    <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="48" x14ac:dyDescent="0.35">
       <c r="A51" s="58">
         <v>4112202</v>
       </c>
@@ -28314,7 +28314,7 @@
       <c r="N51" s="98"/>
       <c r="O51" s="96"/>
     </row>
-    <row r="52" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A52" s="58">
         <v>4112202</v>
       </c>
@@ -28343,7 +28343,7 @@
       <c r="N52" s="98"/>
       <c r="O52" s="96"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="58">
         <v>4112202</v>
       </c>
@@ -28372,7 +28372,7 @@
       <c r="N53" s="98"/>
       <c r="O53" s="96"/>
     </row>
-    <row r="54" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A54" s="58">
         <v>4112202</v>
       </c>
@@ -28401,7 +28401,7 @@
       <c r="N54" s="98"/>
       <c r="O54" s="96"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="57">
         <v>4112314</v>
       </c>
@@ -28430,7 +28430,7 @@
       <c r="N55" s="98"/>
       <c r="O55" s="96"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="57">
         <v>4112303</v>
       </c>
@@ -28459,7 +28459,7 @@
       <c r="N56" s="98"/>
       <c r="O56" s="94"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="60">
         <v>4141101</v>
       </c>
@@ -28488,7 +28488,7 @@
       <c r="N57" s="99"/>
       <c r="O57" s="102"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="61">
         <v>4111306</v>
       </c>
@@ -28517,7 +28517,7 @@
       <c r="N58" s="99"/>
       <c r="O58" s="97"/>
     </row>
-    <row r="59" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A59" s="61">
         <v>4111307</v>
       </c>
@@ -28546,7 +28546,7 @@
       <c r="N59" s="99"/>
       <c r="O59" s="97"/>
     </row>
-    <row r="60" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A60" s="61">
         <v>4111307</v>
       </c>
@@ -28575,7 +28575,7 @@
       <c r="N60" s="99"/>
       <c r="O60" s="97"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="61">
         <v>4111307</v>
       </c>
@@ -28604,7 +28604,7 @@
       <c r="N61" s="90"/>
       <c r="O61" s="96"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="58">
         <v>4111201</v>
       </c>
@@ -28633,7 +28633,7 @@
       <c r="N62" s="86"/>
       <c r="O62" s="88"/>
     </row>
-    <row r="63" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A63" s="58">
         <v>4111201</v>
       </c>
@@ -28662,7 +28662,7 @@
       <c r="N63" s="99"/>
       <c r="O63" s="97"/>
     </row>
-    <row r="64" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A64" s="58">
         <v>4111201</v>
       </c>
@@ -28691,7 +28691,7 @@
       <c r="N64" s="99"/>
       <c r="O64" s="97"/>
     </row>
-    <row r="65" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A65" s="58">
         <v>4111201</v>
       </c>
@@ -28720,7 +28720,7 @@
       <c r="N65" s="99"/>
       <c r="O65" s="97"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="58">
         <v>4111201</v>
       </c>
@@ -28749,7 +28749,7 @@
       <c r="N66" s="98"/>
       <c r="O66" s="96"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="58">
         <v>4111201</v>
       </c>
@@ -28778,7 +28778,7 @@
       <c r="N67" s="99"/>
       <c r="O67" s="97"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="58">
         <v>4111201</v>
       </c>
@@ -28807,7 +28807,7 @@
       <c r="N68" s="99"/>
       <c r="O68" s="97"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="184" t="s">
         <v>296</v>
       </c>
@@ -28830,7 +28830,7 @@
       <c r="N69" s="50"/>
       <c r="O69" s="50"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="184" t="s">
         <v>297</v>
       </c>
@@ -28853,7 +28853,7 @@
       <c r="N70" s="50"/>
       <c r="O70" s="50"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D71" s="71"/>
       <c r="E71" s="71">
         <f>SUM(E2:E70)</f>
@@ -28870,7 +28870,7 @@
       <c r="N71" s="52"/>
       <c r="O71" s="52"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D72" s="71"/>
       <c r="E72" s="71"/>
       <c r="F72" s="52"/>
@@ -28884,7 +28884,7 @@
       <c r="N72" s="52"/>
       <c r="O72" s="52"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D73" s="71"/>
       <c r="E73" s="71"/>
       <c r="F73" s="52"/>
@@ -28898,7 +28898,7 @@
       <c r="N73" s="52"/>
       <c r="O73" s="52"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D74" s="71"/>
       <c r="E74" s="71"/>
       <c r="F74" s="52"/>
@@ -28912,7 +28912,7 @@
       <c r="N74" s="52"/>
       <c r="O74" s="52"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D75" s="71"/>
       <c r="E75" s="71"/>
       <c r="F75" s="52"/>
@@ -28926,7 +28926,7 @@
       <c r="N75" s="52"/>
       <c r="O75" s="52"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="52"/>
@@ -28940,7 +28940,7 @@
       <c r="N76" s="52"/>
       <c r="O76" s="52"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D77" s="71"/>
       <c r="E77" s="71"/>
       <c r="F77" s="52"/>
@@ -28954,7 +28954,7 @@
       <c r="N77" s="52"/>
       <c r="O77" s="52"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D78" s="71"/>
       <c r="E78" s="71"/>
       <c r="F78" s="52"/>
@@ -28968,7 +28968,7 @@
       <c r="N78" s="52"/>
       <c r="O78" s="52"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D79" s="71"/>
       <c r="E79" s="71"/>
       <c r="F79" s="52"/>
@@ -28996,31 +28996,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K13" sqref="K13"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="70" customWidth="1"/>
-    <col min="4" max="7" width="18.85546875" style="72" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="72" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="70" customWidth="1"/>
+    <col min="4" max="7" width="18.88671875" style="72" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="72" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="51" customWidth="1"/>
     <col min="10" max="10" width="21" style="120" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="297" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="37" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="297" customWidth="1"/>
     <col min="13" max="13" width="29" style="298" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="298" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" style="299" customWidth="1"/>
-    <col min="16" max="63" width="9.140625" style="37"/>
-    <col min="64" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="18.88671875" style="298" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" style="299" customWidth="1"/>
+    <col min="16" max="63" width="9.109375" style="37"/>
+    <col min="64" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
         <v>196</v>
       </c>
@@ -29067,7 +29067,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
         <v>3111302</v>
       </c>
@@ -29106,7 +29106,7 @@
       <c r="N2" s="234"/>
       <c r="O2" s="230"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="54">
         <v>3111327</v>
       </c>
@@ -29145,7 +29145,7 @@
       <c r="N3" s="234"/>
       <c r="O3" s="230"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="54">
         <v>3111338</v>
       </c>
@@ -29184,7 +29184,7 @@
       <c r="N4" s="234"/>
       <c r="O4" s="230"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="55">
         <v>3241101</v>
       </c>
@@ -29223,7 +29223,7 @@
       <c r="N5" s="234"/>
       <c r="O5" s="230"/>
     </row>
-    <row r="6" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="55">
         <v>3211129</v>
       </c>
@@ -29262,7 +29262,7 @@
       <c r="N6" s="234"/>
       <c r="O6" s="230"/>
     </row>
-    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>3821103</v>
       </c>
@@ -29301,7 +29301,7 @@
       <c r="N7" s="234"/>
       <c r="O7" s="230"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="55">
         <v>3211119</v>
       </c>
@@ -29340,7 +29340,7 @@
       <c r="N8" s="234"/>
       <c r="O8" s="230"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>3211120</v>
       </c>
@@ -29379,7 +29379,7 @@
       <c r="N9" s="234"/>
       <c r="O9" s="230"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>3211117</v>
       </c>
@@ -29418,7 +29418,7 @@
       <c r="N10" s="234"/>
       <c r="O10" s="230"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>3221104</v>
       </c>
@@ -29457,7 +29457,7 @@
       <c r="N11" s="234"/>
       <c r="O11" s="230"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="55">
         <v>3211115</v>
       </c>
@@ -29496,7 +29496,7 @@
       <c r="N12" s="234"/>
       <c r="O12" s="230"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>3211113</v>
       </c>
@@ -29535,7 +29535,7 @@
       <c r="N13" s="234"/>
       <c r="O13" s="230"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="55">
         <v>3243102</v>
       </c>
@@ -29574,7 +29574,7 @@
       <c r="N14" s="234"/>
       <c r="O14" s="230"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="55">
         <v>3243101</v>
       </c>
@@ -29613,7 +29613,7 @@
       <c r="N15" s="234"/>
       <c r="O15" s="230"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="55">
         <v>3221108</v>
       </c>
@@ -29652,7 +29652,7 @@
       <c r="N16" s="234"/>
       <c r="O16" s="230"/>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A17" s="55">
         <v>3255102</v>
       </c>
@@ -29691,7 +29691,7 @@
       <c r="N17" s="234"/>
       <c r="O17" s="230"/>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A18" s="55">
         <v>3255104</v>
       </c>
@@ -29730,7 +29730,7 @@
       <c r="N18" s="234"/>
       <c r="O18" s="230"/>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A19" s="55">
         <v>3211127</v>
       </c>
@@ -29769,7 +29769,7 @@
       <c r="N19" s="234"/>
       <c r="O19" s="230"/>
     </row>
-    <row r="20" spans="1:63" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55">
         <v>3231201</v>
       </c>
@@ -29808,7 +29808,7 @@
       <c r="N20" s="234"/>
       <c r="O20" s="230"/>
     </row>
-    <row r="21" spans="1:63" s="117" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" s="117" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55">
         <v>3231201</v>
       </c>
@@ -29899,7 +29899,7 @@
       <c r="BJ21" s="116"/>
       <c r="BK21" s="116"/>
     </row>
-    <row r="22" spans="1:63" s="117" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" s="117" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A22" s="55">
         <v>3231201</v>
       </c>
@@ -29990,7 +29990,7 @@
       <c r="BJ22" s="116"/>
       <c r="BK22" s="116"/>
     </row>
-    <row r="23" spans="1:63" s="117" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" s="117" customFormat="1" ht="51" x14ac:dyDescent="0.3">
       <c r="A23" s="55">
         <v>3231201</v>
       </c>
@@ -30081,7 +30081,7 @@
       <c r="BJ23" s="116"/>
       <c r="BK23" s="116"/>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A24" s="55">
         <v>3211109</v>
       </c>
@@ -30120,7 +30120,7 @@
       <c r="N24" s="234"/>
       <c r="O24" s="230"/>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A25" s="55">
         <v>3256103</v>
       </c>
@@ -30159,7 +30159,7 @@
       <c r="N25" s="234"/>
       <c r="O25" s="230"/>
     </row>
-    <row r="26" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="55">
         <v>3257101</v>
       </c>
@@ -30202,7 +30202,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A27" s="56">
         <v>3111332</v>
       </c>
@@ -30241,7 +30241,7 @@
       <c r="N27" s="234"/>
       <c r="O27" s="230"/>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A28" s="56">
         <v>3111332</v>
       </c>
@@ -30280,7 +30280,7 @@
       <c r="N28" s="234"/>
       <c r="O28" s="230"/>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A29" s="56">
         <v>3111332</v>
       </c>
@@ -30319,7 +30319,7 @@
       <c r="N29" s="234"/>
       <c r="O29" s="230"/>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A30" s="55">
         <v>3257104</v>
       </c>
@@ -30358,7 +30358,7 @@
       <c r="N30" s="234"/>
       <c r="O30" s="230"/>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A31" s="55">
         <v>3255101</v>
       </c>
@@ -30397,7 +30397,7 @@
       <c r="N31" s="234"/>
       <c r="O31" s="230"/>
     </row>
-    <row r="32" spans="1:63" s="195" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" s="195" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="233">
         <v>3256101</v>
       </c>
@@ -30484,7 +30484,7 @@
       <c r="BJ32" s="194"/>
       <c r="BK32" s="194"/>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A33" s="55">
         <v>3258101</v>
       </c>
@@ -30523,7 +30523,7 @@
       <c r="N33" s="234"/>
       <c r="O33" s="230"/>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A34" s="55">
         <v>3258102</v>
       </c>
@@ -30562,7 +30562,7 @@
       <c r="N34" s="234"/>
       <c r="O34" s="230"/>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A35" s="55">
         <v>3258103</v>
       </c>
@@ -30601,7 +30601,7 @@
       <c r="N35" s="234"/>
       <c r="O35" s="230"/>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A36" s="55">
         <v>3258105</v>
       </c>
@@ -30640,7 +30640,7 @@
       <c r="N36" s="234"/>
       <c r="O36" s="230"/>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A37" s="55">
         <v>3258107</v>
       </c>
@@ -30679,7 +30679,7 @@
       <c r="N37" s="234"/>
       <c r="O37" s="230"/>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A38" s="55">
         <v>3258106</v>
       </c>
@@ -30718,7 +30718,7 @@
       <c r="N38" s="234"/>
       <c r="O38" s="230"/>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A39" s="55">
         <v>3258105</v>
       </c>
@@ -30757,7 +30757,7 @@
       <c r="N39" s="234"/>
       <c r="O39" s="230"/>
     </row>
-    <row r="40" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="54">
         <v>3258114</v>
       </c>
@@ -30802,7 +30802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A41" s="55">
         <v>3258128</v>
       </c>
@@ -30841,7 +30841,7 @@
       <c r="N41" s="234"/>
       <c r="O41" s="230"/>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A42" s="55">
         <v>3258107</v>
       </c>
@@ -30880,7 +30880,7 @@
       <c r="N42" s="234"/>
       <c r="O42" s="230"/>
     </row>
-    <row r="43" spans="1:63" s="195" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" s="195" customFormat="1" ht="67.2" x14ac:dyDescent="0.35">
       <c r="A43" s="227">
         <v>4112101</v>
       </c>
@@ -30967,7 +30967,7 @@
       <c r="BJ43" s="194"/>
       <c r="BK43" s="194"/>
     </row>
-    <row r="44" spans="1:63" s="195" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" s="195" customFormat="1" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A44" s="227">
         <v>4112101</v>
       </c>
@@ -31050,7 +31050,7 @@
       <c r="BJ44" s="194"/>
       <c r="BK44" s="194"/>
     </row>
-    <row r="45" spans="1:63" s="195" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" s="195" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="231">
         <v>4112102</v>
       </c>
@@ -31133,7 +31133,7 @@
       <c r="BJ45" s="194"/>
       <c r="BK45" s="194"/>
     </row>
-    <row r="46" spans="1:63" s="195" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" s="195" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="231">
         <v>4112316</v>
       </c>
@@ -31216,7 +31216,7 @@
       <c r="BJ46" s="194"/>
       <c r="BK46" s="194"/>
     </row>
-    <row r="47" spans="1:63" s="195" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" s="195" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A47" s="231">
         <v>4112316</v>
       </c>
@@ -31299,7 +31299,7 @@
       <c r="BJ47" s="194"/>
       <c r="BK47" s="194"/>
     </row>
-    <row r="48" spans="1:63" s="195" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63" s="195" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="231">
         <v>4112304</v>
       </c>
@@ -31382,7 +31382,7 @@
       <c r="BJ48" s="194"/>
       <c r="BK48" s="194"/>
     </row>
-    <row r="49" spans="1:63" s="195" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:63" s="195" customFormat="1" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A49" s="231">
         <v>4112304</v>
       </c>
@@ -31465,7 +31465,7 @@
       <c r="BJ49" s="194"/>
       <c r="BK49" s="194"/>
     </row>
-    <row r="50" spans="1:63" s="195" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:63" s="195" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A50" s="231">
         <v>4112304</v>
       </c>
@@ -31552,7 +31552,7 @@
       <c r="BJ50" s="194"/>
       <c r="BK50" s="194"/>
     </row>
-    <row r="51" spans="1:63" s="195" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:63" s="195" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A51" s="231">
         <v>4112202</v>
       </c>
@@ -31635,7 +31635,7 @@
       <c r="BJ51" s="194"/>
       <c r="BK51" s="194"/>
     </row>
-    <row r="52" spans="1:63" s="195" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:63" s="195" customFormat="1" ht="30.6" x14ac:dyDescent="0.35">
       <c r="A52" s="231">
         <v>4112202</v>
       </c>
@@ -31718,7 +31718,7 @@
       <c r="BJ52" s="194"/>
       <c r="BK52" s="194"/>
     </row>
-    <row r="53" spans="1:63" s="195" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:63" s="195" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="231">
         <v>4112202</v>
       </c>
@@ -31801,7 +31801,7 @@
       <c r="BJ53" s="194"/>
       <c r="BK53" s="194"/>
     </row>
-    <row r="54" spans="1:63" s="195" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:63" s="195" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A54" s="231">
         <v>4112202</v>
       </c>
@@ -31884,7 +31884,7 @@
       <c r="BJ54" s="194"/>
       <c r="BK54" s="194"/>
     </row>
-    <row r="55" spans="1:63" s="195" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:63" s="195" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="227">
         <v>4112314</v>
       </c>
@@ -31967,7 +31967,7 @@
       <c r="BJ55" s="194"/>
       <c r="BK55" s="194"/>
     </row>
-    <row r="56" spans="1:63" s="195" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:63" s="195" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="227">
         <v>4112303</v>
       </c>
@@ -32054,7 +32054,7 @@
       <c r="BJ56" s="194"/>
       <c r="BK56" s="194"/>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A57" s="60">
         <v>4141101</v>
       </c>
@@ -32093,7 +32093,7 @@
       <c r="N57" s="234"/>
       <c r="O57" s="230"/>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A58" s="61">
         <v>4111306</v>
       </c>
@@ -32138,7 +32138,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A59" s="61">
         <v>4111307</v>
       </c>
@@ -32183,7 +32183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A60" s="61">
         <v>4111307</v>
       </c>
@@ -32228,7 +32228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A61" s="61">
         <v>4111307</v>
       </c>
@@ -32273,7 +32273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A62" s="58">
         <v>4111201</v>
       </c>
@@ -32318,7 +32318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A63" s="58">
         <v>4111201</v>
       </c>
@@ -32363,7 +32363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:63" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A64" s="58">
         <v>4111201</v>
       </c>
@@ -32408,7 +32408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A65" s="58">
         <v>4111201</v>
       </c>
@@ -32453,7 +32453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="58">
         <v>4111201</v>
       </c>
@@ -32498,7 +32498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="58">
         <v>4111201</v>
       </c>
@@ -32543,7 +32543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="58">
         <v>4111201</v>
       </c>
@@ -32588,7 +32588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>296</v>
       </c>
@@ -32627,7 +32627,7 @@
       <c r="N69" s="234"/>
       <c r="O69" s="230"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>297</v>
       </c>
@@ -32666,12 +32666,9 @@
       <c r="N70" s="234"/>
       <c r="O70" s="230"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D71" s="71"/>
-      <c r="E71" s="71">
-        <f>SUM(E2:E70)</f>
-        <v>26431.519999999997</v>
-      </c>
+      <c r="E71" s="71"/>
       <c r="F71" s="71"/>
       <c r="G71" s="71"/>
       <c r="H71" s="71"/>
@@ -32680,15 +32677,15 @@
       <c r="N71" s="297"/>
       <c r="O71" s="297"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H72" s="71"/>
       <c r="I72" s="52"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H73" s="71"/>
       <c r="I73" s="52"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D74" s="71"/>
       <c r="E74" s="71"/>
       <c r="F74" s="71"/>
@@ -32696,7 +32693,7 @@
       <c r="H74" s="71"/>
       <c r="I74" s="52"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D75" s="71"/>
       <c r="E75" s="71"/>
       <c r="F75" s="71"/>
@@ -32704,7 +32701,7 @@
       <c r="H75" s="71"/>
       <c r="I75" s="52"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D76" s="71"/>
       <c r="E76" s="71"/>
       <c r="F76" s="71"/>
@@ -32712,7 +32709,7 @@
       <c r="H76" s="71"/>
       <c r="I76" s="52"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D77" s="71"/>
       <c r="E77" s="71"/>
       <c r="F77" s="71"/>
@@ -32720,7 +32717,7 @@
       <c r="H77" s="71"/>
       <c r="I77" s="52"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D78" s="71"/>
       <c r="E78" s="71"/>
       <c r="F78" s="71"/>
@@ -32728,7 +32725,7 @@
       <c r="H78" s="71"/>
       <c r="I78" s="52"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D79" s="71"/>
       <c r="E79" s="71"/>
       <c r="F79" s="71"/>
@@ -32754,14 +32751,14 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="123"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>223</v>
       </c>
@@ -32769,7 +32766,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>101</v>
       </c>
@@ -32783,7 +32780,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>105</v>
       </c>
@@ -32795,7 +32792,7 @@
       </c>
       <c r="E3" s="316"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>107</v>
       </c>
@@ -32809,7 +32806,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>109</v>
       </c>
@@ -32823,7 +32820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>111</v>
       </c>
@@ -32835,7 +32832,7 @@
       </c>
       <c r="E6" s="316"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>115</v>
       </c>
@@ -32849,7 +32846,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>117</v>
       </c>
@@ -32863,7 +32860,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>120</v>
       </c>
@@ -32877,7 +32874,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>123</v>
       </c>
@@ -32891,7 +32888,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>125</v>
       </c>
@@ -32905,7 +32902,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>127</v>
       </c>
@@ -32919,7 +32916,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>129</v>
       </c>
@@ -32933,7 +32930,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>131</v>
       </c>
@@ -32947,7 +32944,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>133</v>
       </c>
@@ -32961,7 +32958,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>137</v>
       </c>
@@ -32975,7 +32972,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>139</v>
       </c>
@@ -32989,7 +32986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>141</v>
       </c>
@@ -33003,7 +33000,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>143</v>
       </c>
@@ -33017,7 +33014,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>147</v>
       </c>
@@ -33029,7 +33026,7 @@
       </c>
       <c r="E20" s="316"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>149</v>
       </c>
@@ -33043,7 +33040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>151</v>
       </c>
@@ -33055,7 +33052,7 @@
       </c>
       <c r="E22" s="316"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>153</v>
       </c>
@@ -33067,7 +33064,7 @@
       </c>
       <c r="E23" s="316"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>164</v>
       </c>
@@ -33081,7 +33078,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>167</v>
       </c>
@@ -33095,7 +33092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>169</v>
       </c>
@@ -33107,7 +33104,7 @@
       </c>
       <c r="E26" s="316"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>172</v>
       </c>
@@ -33121,7 +33118,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>176</v>
       </c>
@@ -33133,7 +33130,7 @@
       </c>
       <c r="E28" s="316"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>180</v>
       </c>
@@ -33145,7 +33142,7 @@
       </c>
       <c r="E29" s="316"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>183</v>
       </c>
@@ -33159,7 +33156,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>185</v>
       </c>
@@ -33173,7 +33170,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>285</v>
       </c>
@@ -33187,7 +33184,7 @@
         <v>66.25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>286</v>
       </c>
@@ -33201,162 +33198,162 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E34" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E35" s="316">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E36" s="316">
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E37" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E38" s="316"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E39" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E40" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E41" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E42" s="316">
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E43" s="316"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E44" s="316"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E45" s="316"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E46" s="316"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E47" s="316"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E48" s="316"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="316"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="316">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="316"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" s="316"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E54" s="316"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E55" s="316"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E56" s="316">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" s="316"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E58" s="316">
         <v>17.5</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E59" s="316">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E60" s="316">
         <v>86.63</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E61" s="316">
         <v>12.5</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E62" s="316">
         <v>15.75</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E63" s="316">
         <v>17.5</v>
       </c>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E64" s="316">
         <v>17.5</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E65" s="316">
         <v>134.75</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E66" s="316">
         <v>2.62</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" s="316">
         <v>8.75</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E68" s="316">
         <v>12.5</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" s="316"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" s="316"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E71" s="123">
         <f>SUM(E2:E70)</f>
         <v>491.44</v>

--- a/Civilworks cost/IMED/Imed_calculation/Monthly_Expenditure_2020_21.xlsx
+++ b/Civilworks cost/IMED/Imed_calculation/Monthly_Expenditure_2020_21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10428" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DPP_ALLOC" sheetId="41" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="332">
   <si>
     <t>fvZvw`</t>
   </si>
@@ -21264,12 +21264,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO79"/>
+  <dimension ref="A1:BO78"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K13" sqref="K13"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -21347,12 +21347,8 @@
         <v>101</v>
       </c>
       <c r="D2" s="198"/>
-      <c r="E2" s="199">
-        <v>0.06</v>
-      </c>
-      <c r="F2" s="221">
-        <v>4000</v>
-      </c>
+      <c r="E2" s="199"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="268"/>
       <c r="H2" s="216"/>
       <c r="I2" s="216"/>
@@ -21403,12 +21399,8 @@
         <v>101</v>
       </c>
       <c r="D4" s="198"/>
-      <c r="E4" s="199">
-        <v>3.53</v>
-      </c>
-      <c r="F4" s="215">
-        <v>405843</v>
-      </c>
+      <c r="E4" s="199"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="268"/>
       <c r="H4" s="216"/>
       <c r="I4" s="216"/>
@@ -21433,12 +21425,8 @@
         <v>105</v>
       </c>
       <c r="D5" s="198"/>
-      <c r="E5" s="199">
-        <v>3</v>
-      </c>
-      <c r="F5" s="215">
-        <v>31150</v>
-      </c>
+      <c r="E5" s="199"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="268"/>
       <c r="H5" s="217"/>
       <c r="I5" s="251"/>
@@ -21464,9 +21452,7 @@
       </c>
       <c r="D6" s="198"/>
       <c r="E6" s="199"/>
-      <c r="F6" s="221">
-        <v>855210</v>
-      </c>
+      <c r="F6" s="221"/>
       <c r="G6" s="268"/>
       <c r="H6" s="217"/>
       <c r="I6" s="217"/>
@@ -21491,12 +21477,8 @@
         <v>109</v>
       </c>
       <c r="D7" s="198"/>
-      <c r="E7" s="300">
-        <v>28.75</v>
-      </c>
-      <c r="F7" s="221">
-        <v>2622901</v>
-      </c>
+      <c r="E7" s="300"/>
+      <c r="F7" s="221"/>
       <c r="G7" s="301"/>
       <c r="H7" s="302"/>
       <c r="I7" s="303"/>
@@ -21521,12 +21503,8 @@
         <v>111</v>
       </c>
       <c r="D8" s="212"/>
-      <c r="E8" s="212">
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="213">
-        <v>311</v>
-      </c>
+      <c r="E8" s="212"/>
+      <c r="F8" s="213"/>
       <c r="G8" s="304"/>
       <c r="H8" s="214"/>
       <c r="I8" s="214"/>
@@ -21602,9 +21580,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="199"/>
-      <c r="E9" s="199">
-        <v>0.01</v>
-      </c>
+      <c r="E9" s="199"/>
       <c r="F9" s="215"/>
       <c r="G9" s="268"/>
       <c r="H9" s="217"/>
@@ -21681,12 +21657,8 @@
         <v>111</v>
       </c>
       <c r="D10" s="198"/>
-      <c r="E10" s="199">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="215">
-        <v>3285</v>
-      </c>
+      <c r="E10" s="199"/>
+      <c r="F10" s="215"/>
       <c r="G10" s="268"/>
       <c r="H10" s="217"/>
       <c r="I10" s="217"/>
@@ -21711,9 +21683,7 @@
         <v>115</v>
       </c>
       <c r="D11" s="198"/>
-      <c r="E11" s="199">
-        <v>0.16</v>
-      </c>
+      <c r="E11" s="199"/>
       <c r="F11" s="221"/>
       <c r="G11" s="268"/>
       <c r="H11" s="216"/>
@@ -21739,12 +21709,8 @@
         <v>117</v>
       </c>
       <c r="D12" s="198"/>
-      <c r="E12" s="199">
-        <v>0.15</v>
-      </c>
-      <c r="F12" s="215">
-        <v>40636</v>
-      </c>
+      <c r="E12" s="199"/>
+      <c r="F12" s="215"/>
       <c r="G12" s="268"/>
       <c r="H12" s="217"/>
       <c r="I12" s="217"/>
@@ -21769,12 +21735,8 @@
         <v>117</v>
       </c>
       <c r="D13" s="198"/>
-      <c r="E13" s="199">
-        <v>0.75</v>
-      </c>
-      <c r="F13" s="215">
-        <v>44045</v>
-      </c>
+      <c r="E13" s="199"/>
+      <c r="F13" s="215"/>
       <c r="G13" s="268"/>
       <c r="H13" s="217"/>
       <c r="I13" s="217"/>
@@ -21799,12 +21761,8 @@
         <v>120</v>
       </c>
       <c r="D14" s="198"/>
-      <c r="E14" s="199">
-        <v>0.25</v>
-      </c>
-      <c r="F14" s="215">
-        <v>208633</v>
-      </c>
+      <c r="E14" s="199"/>
+      <c r="F14" s="215"/>
       <c r="G14" s="268"/>
       <c r="H14" s="217"/>
       <c r="I14" s="217"/>
@@ -21829,9 +21787,7 @@
         <v>120</v>
       </c>
       <c r="D15" s="198"/>
-      <c r="E15" s="199">
-        <v>2.9</v>
-      </c>
+      <c r="E15" s="199"/>
       <c r="F15" s="215"/>
       <c r="G15" s="268"/>
       <c r="H15" s="217"/>
@@ -21857,9 +21813,7 @@
         <v>123</v>
       </c>
       <c r="D16" s="198"/>
-      <c r="E16" s="199">
-        <v>0.13</v>
-      </c>
+      <c r="E16" s="199"/>
       <c r="F16" s="221"/>
       <c r="G16" s="268"/>
       <c r="H16" s="216"/>
@@ -21885,9 +21839,7 @@
         <v>125</v>
       </c>
       <c r="D17" s="198"/>
-      <c r="E17" s="199">
-        <v>0</v>
-      </c>
+      <c r="E17" s="199"/>
       <c r="F17" s="215"/>
       <c r="G17" s="268"/>
       <c r="H17" s="217"/>
@@ -21913,12 +21865,8 @@
         <v>127</v>
       </c>
       <c r="D18" s="198"/>
-      <c r="E18" s="199">
-        <v>1.75</v>
-      </c>
-      <c r="F18" s="215">
-        <v>33671</v>
-      </c>
+      <c r="E18" s="199"/>
+      <c r="F18" s="215"/>
       <c r="G18" s="268"/>
       <c r="H18" s="217"/>
       <c r="I18" s="217"/>
@@ -21943,12 +21891,8 @@
         <v>129</v>
       </c>
       <c r="D19" s="199"/>
-      <c r="E19" s="199">
-        <v>0.04</v>
-      </c>
-      <c r="F19" s="221">
-        <v>241</v>
-      </c>
+      <c r="E19" s="199"/>
+      <c r="F19" s="221"/>
       <c r="G19" s="268"/>
       <c r="H19" s="216"/>
       <c r="I19" s="216"/>
@@ -22050,9 +21994,7 @@
         <v>133</v>
       </c>
       <c r="D21" s="198"/>
-      <c r="E21" s="199">
-        <v>0</v>
-      </c>
+      <c r="E21" s="199"/>
       <c r="F21" s="215"/>
       <c r="G21" s="268"/>
       <c r="H21" s="217"/>
@@ -22130,9 +22072,7 @@
         <v>137</v>
       </c>
       <c r="D24" s="199"/>
-      <c r="E24" s="199">
-        <v>0.16</v>
-      </c>
+      <c r="E24" s="199"/>
       <c r="F24" s="221"/>
       <c r="G24" s="268"/>
       <c r="H24" s="216"/>
@@ -22209,9 +22149,7 @@
         <v>139</v>
       </c>
       <c r="D25" s="198"/>
-      <c r="E25" s="199">
-        <v>0</v>
-      </c>
+      <c r="E25" s="199"/>
       <c r="F25" s="215"/>
       <c r="G25" s="268"/>
       <c r="H25" s="217"/>
@@ -22263,12 +22201,8 @@
         <v>143</v>
       </c>
       <c r="D27" s="198"/>
-      <c r="E27" s="199">
-        <v>0.87</v>
-      </c>
-      <c r="F27" s="215">
-        <v>32200</v>
-      </c>
+      <c r="E27" s="199"/>
+      <c r="F27" s="215"/>
       <c r="G27" s="268"/>
       <c r="H27" s="217"/>
       <c r="I27" s="217"/>
@@ -22345,9 +22279,7 @@
         <v>147</v>
       </c>
       <c r="D30" s="198"/>
-      <c r="E30" s="199">
-        <v>3.75</v>
-      </c>
+      <c r="E30" s="199"/>
       <c r="F30" s="215"/>
       <c r="G30" s="268"/>
       <c r="H30" s="217"/>
@@ -22373,12 +22305,8 @@
         <v>149</v>
       </c>
       <c r="D31" s="199"/>
-      <c r="E31" s="199">
-        <v>1.25</v>
-      </c>
-      <c r="F31" s="215">
-        <v>7118</v>
-      </c>
+      <c r="E31" s="199"/>
+      <c r="F31" s="215"/>
       <c r="G31" s="268"/>
       <c r="H31" s="217"/>
       <c r="I31" s="216"/>
@@ -22454,12 +22382,8 @@
         <v>151</v>
       </c>
       <c r="D32" s="199"/>
-      <c r="E32" s="199">
-        <v>66.25</v>
-      </c>
-      <c r="F32" s="215">
-        <v>65365</v>
-      </c>
+      <c r="E32" s="199"/>
+      <c r="F32" s="215"/>
       <c r="G32" s="268"/>
       <c r="H32" s="217"/>
       <c r="I32" s="251"/>
@@ -22535,9 +22459,7 @@
         <v>153</v>
       </c>
       <c r="D33" s="222"/>
-      <c r="E33" s="305">
-        <v>1.77</v>
-      </c>
+      <c r="E33" s="305"/>
       <c r="F33" s="215"/>
       <c r="G33" s="306"/>
       <c r="H33" s="217"/>
@@ -22563,9 +22485,7 @@
         <v>153</v>
       </c>
       <c r="D34" s="198"/>
-      <c r="E34" s="199">
-        <v>0</v>
-      </c>
+      <c r="E34" s="199"/>
       <c r="F34" s="221"/>
       <c r="G34" s="268"/>
       <c r="H34" s="199"/>
@@ -22591,12 +22511,8 @@
         <v>153</v>
       </c>
       <c r="D35" s="198"/>
-      <c r="E35" s="199">
-        <v>0.4</v>
-      </c>
-      <c r="F35" s="221">
-        <v>12527</v>
-      </c>
+      <c r="E35" s="199"/>
+      <c r="F35" s="221"/>
       <c r="G35" s="268"/>
       <c r="H35" s="216"/>
       <c r="I35" s="216"/>
@@ -22621,12 +22537,8 @@
         <v>153</v>
       </c>
       <c r="D36" s="198"/>
-      <c r="E36" s="199">
-        <v>0.2</v>
-      </c>
-      <c r="F36" s="221" t="s">
-        <v>36</v>
-      </c>
+      <c r="E36" s="199"/>
+      <c r="F36" s="221"/>
       <c r="G36" s="268"/>
       <c r="H36" s="216"/>
       <c r="I36" s="216"/>
@@ -22651,9 +22563,7 @@
         <v>153</v>
       </c>
       <c r="D37" s="198"/>
-      <c r="E37" s="199">
-        <v>0</v>
-      </c>
+      <c r="E37" s="199"/>
       <c r="F37" s="221"/>
       <c r="G37" s="268"/>
       <c r="H37" s="216"/>
@@ -22705,9 +22615,7 @@
         <v>153</v>
       </c>
       <c r="D39" s="198"/>
-      <c r="E39" s="199">
-        <v>0</v>
-      </c>
+      <c r="E39" s="199"/>
       <c r="F39" s="221"/>
       <c r="G39" s="268"/>
       <c r="H39" s="216"/>
@@ -22733,9 +22641,7 @@
         <v>153</v>
       </c>
       <c r="D40" s="198"/>
-      <c r="E40" s="258">
-        <v>0</v>
-      </c>
+      <c r="E40" s="258"/>
       <c r="F40" s="221"/>
       <c r="G40" s="268"/>
       <c r="H40" s="216"/>
@@ -22761,9 +22667,7 @@
         <v>153</v>
       </c>
       <c r="D41" s="198"/>
-      <c r="E41" s="199">
-        <v>0</v>
-      </c>
+      <c r="E41" s="199"/>
       <c r="F41" s="221"/>
       <c r="G41" s="268"/>
       <c r="H41" s="216"/>
@@ -22789,9 +22693,7 @@
         <v>153</v>
       </c>
       <c r="D42" s="198"/>
-      <c r="E42" s="199">
-        <v>0.25</v>
-      </c>
+      <c r="E42" s="199"/>
       <c r="F42" s="307"/>
       <c r="G42" s="268"/>
       <c r="H42" s="308"/>
@@ -22981,9 +22883,7 @@
         <v>172</v>
       </c>
       <c r="D50" s="198"/>
-      <c r="E50" s="199">
-        <v>35</v>
-      </c>
+      <c r="E50" s="199"/>
       <c r="F50" s="310"/>
       <c r="G50" s="268"/>
       <c r="H50" s="253"/>
@@ -23009,9 +22909,7 @@
         <v>176</v>
       </c>
       <c r="D51" s="198"/>
-      <c r="E51" s="199">
-        <v>0</v>
-      </c>
+      <c r="E51" s="199"/>
       <c r="F51" s="311"/>
       <c r="G51" s="268"/>
       <c r="H51" s="308"/>
@@ -23126,9 +23024,7 @@
         <v>180</v>
       </c>
       <c r="D56" s="198"/>
-      <c r="E56" s="199">
-        <v>0</v>
-      </c>
+      <c r="E56" s="199"/>
       <c r="F56" s="307"/>
       <c r="G56" s="268"/>
       <c r="H56" s="308"/>
@@ -23180,9 +23076,7 @@
         <v>185</v>
       </c>
       <c r="D58" s="199"/>
-      <c r="E58" s="258">
-        <v>17.5</v>
-      </c>
+      <c r="E58" s="258"/>
       <c r="F58" s="259"/>
       <c r="G58" s="268"/>
       <c r="H58" s="253"/>
@@ -23208,9 +23102,7 @@
         <v>185</v>
       </c>
       <c r="D59" s="199"/>
-      <c r="E59" s="258">
-        <v>14</v>
-      </c>
+      <c r="E59" s="258"/>
       <c r="F59" s="259"/>
       <c r="G59" s="268"/>
       <c r="H59" s="253"/>
@@ -23236,9 +23128,7 @@
         <v>185</v>
       </c>
       <c r="D60" s="199"/>
-      <c r="E60" s="258">
-        <v>86.63</v>
-      </c>
+      <c r="E60" s="258"/>
       <c r="F60" s="259"/>
       <c r="G60" s="268"/>
       <c r="H60" s="253"/>
@@ -23264,9 +23154,7 @@
         <v>185</v>
       </c>
       <c r="D61" s="199"/>
-      <c r="E61" s="258">
-        <v>12.5</v>
-      </c>
+      <c r="E61" s="258"/>
       <c r="F61" s="215"/>
       <c r="G61" s="268"/>
       <c r="H61" s="217"/>
@@ -23292,9 +23180,7 @@
         <v>185</v>
       </c>
       <c r="D62" s="199"/>
-      <c r="E62" s="258">
-        <v>15.75</v>
-      </c>
+      <c r="E62" s="258"/>
       <c r="F62" s="221"/>
       <c r="G62" s="268"/>
       <c r="H62" s="216"/>
@@ -23320,9 +23206,7 @@
         <v>185</v>
       </c>
       <c r="D63" s="199"/>
-      <c r="E63" s="258">
-        <v>17.5</v>
-      </c>
+      <c r="E63" s="258"/>
       <c r="F63" s="259"/>
       <c r="G63" s="268"/>
       <c r="H63" s="253"/>
@@ -23348,9 +23232,7 @@
         <v>185</v>
       </c>
       <c r="D64" s="199"/>
-      <c r="E64" s="258">
-        <v>17.5</v>
-      </c>
+      <c r="E64" s="258"/>
       <c r="F64" s="259"/>
       <c r="G64" s="268"/>
       <c r="H64" s="253"/>
@@ -23376,9 +23258,7 @@
         <v>185</v>
       </c>
       <c r="D65" s="199"/>
-      <c r="E65" s="258">
-        <v>134.75</v>
-      </c>
+      <c r="E65" s="258"/>
       <c r="F65" s="259"/>
       <c r="G65" s="268"/>
       <c r="H65" s="253"/>
@@ -23404,9 +23284,7 @@
         <v>185</v>
       </c>
       <c r="D66" s="198"/>
-      <c r="E66" s="258">
-        <v>2.62</v>
-      </c>
+      <c r="E66" s="258"/>
       <c r="F66" s="307"/>
       <c r="G66" s="268"/>
       <c r="H66" s="308"/>
@@ -23432,9 +23310,7 @@
         <v>185</v>
       </c>
       <c r="D67" s="198"/>
-      <c r="E67" s="258">
-        <v>8.75</v>
-      </c>
+      <c r="E67" s="258"/>
       <c r="F67" s="259"/>
       <c r="G67" s="268"/>
       <c r="H67" s="253"/>
@@ -23460,9 +23336,7 @@
         <v>185</v>
       </c>
       <c r="D68" s="198"/>
-      <c r="E68" s="199">
-        <v>12.5</v>
-      </c>
+      <c r="E68" s="199"/>
       <c r="F68" s="259"/>
       <c r="G68" s="268"/>
       <c r="H68" s="253"/>
@@ -23523,12 +23397,11 @@
       <c r="N70" s="216"/>
       <c r="O70" s="216"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D71" s="71"/>
-      <c r="E71" s="71">
-        <f>SUM(E2:E70)</f>
-        <v>491.44</v>
-      </c>
+    <row r="71" spans="1:16" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="186"/>
+      <c r="C71" s="186"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="187"/>
       <c r="F71" s="71"/>
       <c r="G71" s="71"/>
       <c r="H71" s="71"/>
@@ -23540,11 +23413,9 @@
       <c r="N71" s="71"/>
       <c r="O71" s="71"/>
     </row>
-    <row r="72" spans="1:16" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="186"/>
-      <c r="C72" s="186"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="187"/>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
       <c r="F72" s="71"/>
       <c r="G72" s="71"/>
       <c r="H72" s="71"/>
@@ -23639,20 +23510,6 @@
       <c r="M78" s="71"/>
       <c r="N78" s="71"/>
       <c r="O78" s="71"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
@@ -28996,10 +28853,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K13" sqref="K13"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -32745,10 +32602,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32773,12 +32630,7 @@
       <c r="B2" s="33">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="316">
-        <v>0.06</v>
-      </c>
+      <c r="E2" s="316"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
@@ -32787,9 +32639,6 @@
       <c r="B3" s="33">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="E3" s="316"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -32799,12 +32648,7 @@
       <c r="B4" s="33">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="316">
-        <v>3.53</v>
-      </c>
+      <c r="E4" s="316"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
@@ -32813,12 +32657,7 @@
       <c r="B5" s="33">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="316">
-        <v>3</v>
-      </c>
+      <c r="E5" s="316"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
@@ -32827,9 +32666,6 @@
       <c r="B6" s="33">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
       <c r="E6" s="316"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -32839,12 +32675,7 @@
       <c r="B7" s="33">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="316">
-        <v>28.75</v>
-      </c>
+      <c r="E7" s="316"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
@@ -32853,12 +32684,7 @@
       <c r="B8" s="33">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="316">
-        <v>0.05</v>
-      </c>
+      <c r="E8" s="316"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
@@ -32867,12 +32693,7 @@
       <c r="B9" s="33">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="E9" s="316">
-        <v>0.01</v>
-      </c>
+      <c r="E9" s="316"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
@@ -32881,12 +32702,7 @@
       <c r="B10" s="33">
         <v>13</v>
       </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="E10" s="316">
-        <v>0.01</v>
-      </c>
+      <c r="E10" s="316"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
@@ -32895,12 +32711,7 @@
       <c r="B11" s="33">
         <v>14</v>
       </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="E11" s="316">
-        <v>0.16</v>
-      </c>
+      <c r="E11" s="316"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
@@ -32909,12 +32720,7 @@
       <c r="B12" s="33">
         <v>15</v>
       </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="E12" s="316">
-        <v>0.15</v>
-      </c>
+      <c r="E12" s="316"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
@@ -32923,12 +32729,7 @@
       <c r="B13" s="33">
         <v>16</v>
       </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="E13" s="316">
-        <v>0.75</v>
-      </c>
+      <c r="E13" s="316"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
@@ -32937,12 +32738,7 @@
       <c r="B14" s="33">
         <v>17</v>
       </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="E14" s="316">
-        <v>0.25</v>
-      </c>
+      <c r="E14" s="316"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
@@ -32951,12 +32747,7 @@
       <c r="B15" s="33">
         <v>18</v>
       </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="E15" s="316">
-        <v>2.9</v>
-      </c>
+      <c r="E15" s="316"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
@@ -32965,12 +32756,7 @@
       <c r="B16" s="33">
         <v>19</v>
       </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="E16" s="316">
-        <v>0.13</v>
-      </c>
+      <c r="E16" s="316"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
@@ -32979,12 +32765,7 @@
       <c r="B17" s="33">
         <v>20</v>
       </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="E17" s="316">
-        <v>0</v>
-      </c>
+      <c r="E17" s="316"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
@@ -32993,12 +32774,7 @@
       <c r="B18" s="33">
         <v>21</v>
       </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="E18" s="316">
-        <v>1.75</v>
-      </c>
+      <c r="E18" s="316"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
@@ -33007,12 +32783,7 @@
       <c r="B19" s="33">
         <v>22</v>
       </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="E19" s="316">
-        <v>0.04</v>
-      </c>
+      <c r="E19" s="316"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
@@ -33021,9 +32792,6 @@
       <c r="B20" s="33">
         <v>23</v>
       </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
       <c r="E20" s="316"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -33033,12 +32801,7 @@
       <c r="B21" s="33">
         <v>24</v>
       </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="E21" s="316">
-        <v>0</v>
-      </c>
+      <c r="E21" s="316"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
@@ -33047,9 +32810,6 @@
       <c r="B22" s="33">
         <v>25</v>
       </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
       <c r="E22" s="316"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -33059,9 +32819,6 @@
       <c r="B23" s="33">
         <v>26</v>
       </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
       <c r="E23" s="316"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -33071,12 +32828,7 @@
       <c r="B24" s="33">
         <v>29</v>
       </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-      <c r="E24" s="316">
-        <v>0.16</v>
-      </c>
+      <c r="E24" s="316"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
@@ -33085,12 +32837,7 @@
       <c r="B25" s="33">
         <v>30</v>
       </c>
-      <c r="C25">
-        <v>23</v>
-      </c>
-      <c r="E25" s="316">
-        <v>0</v>
-      </c>
+      <c r="E25" s="316"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
@@ -33099,9 +32846,6 @@
       <c r="B26" s="33">
         <v>31</v>
       </c>
-      <c r="C26">
-        <v>24</v>
-      </c>
       <c r="E26" s="316"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -33111,12 +32855,7 @@
       <c r="B27" s="33">
         <v>32</v>
       </c>
-      <c r="C27">
-        <v>25</v>
-      </c>
-      <c r="E27" s="316">
-        <v>0.87</v>
-      </c>
+      <c r="E27" s="316"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
@@ -33125,9 +32864,6 @@
       <c r="B28" s="33">
         <v>33</v>
       </c>
-      <c r="C28">
-        <v>26</v>
-      </c>
       <c r="E28" s="316"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -33137,9 +32873,6 @@
       <c r="B29" s="33">
         <v>34</v>
       </c>
-      <c r="C29">
-        <v>27</v>
-      </c>
       <c r="E29" s="316"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -33149,12 +32882,7 @@
       <c r="B30" s="33">
         <v>35</v>
       </c>
-      <c r="C30">
-        <v>28</v>
-      </c>
-      <c r="E30" s="316">
-        <v>3.75</v>
-      </c>
+      <c r="E30" s="316"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
@@ -33163,12 +32891,7 @@
       <c r="B31" s="33">
         <v>36</v>
       </c>
-      <c r="C31">
-        <v>29</v>
-      </c>
-      <c r="E31" s="316">
-        <v>1.25</v>
-      </c>
+      <c r="E31" s="316"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
@@ -33177,12 +32900,7 @@
       <c r="B32" s="33">
         <v>42</v>
       </c>
-      <c r="C32">
-        <v>30</v>
-      </c>
-      <c r="E32" s="316">
-        <v>66.25</v>
-      </c>
+      <c r="E32" s="316"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
@@ -33191,55 +32909,34 @@
       <c r="B33" s="33">
         <v>43</v>
       </c>
-      <c r="C33">
-        <v>31</v>
-      </c>
-      <c r="E33" s="316">
-        <v>1.77</v>
-      </c>
+      <c r="E33" s="316"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="316">
-        <v>0</v>
-      </c>
+      <c r="E34" s="316"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="316">
-        <v>0.4</v>
-      </c>
+      <c r="E35" s="316"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="316">
-        <v>0.2</v>
-      </c>
+      <c r="E36" s="316"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="316">
-        <v>0</v>
-      </c>
+      <c r="E37" s="316"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E38" s="316"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="316">
-        <v>0</v>
-      </c>
+      <c r="E39" s="316"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="316">
-        <v>0</v>
-      </c>
+      <c r="E40" s="316"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="316">
-        <v>0</v>
-      </c>
+      <c r="E41" s="316"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="316">
-        <v>0.25</v>
-      </c>
+      <c r="E42" s="316"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E43" s="316"/>
@@ -33263,14 +32960,10 @@
       <c r="E49" s="316"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="316">
-        <v>35</v>
-      </c>
+      <c r="E50" s="316"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="316">
-        <v>0</v>
-      </c>
+      <c r="E51" s="316"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="316"/>
@@ -33285,79 +32978,49 @@
       <c r="E55" s="316"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E56" s="316">
-        <v>0</v>
-      </c>
+      <c r="E56" s="316"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" s="316"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E58" s="316">
-        <v>17.5</v>
-      </c>
+      <c r="E58" s="316"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E59" s="316">
-        <v>14</v>
-      </c>
+      <c r="E59" s="316"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E60" s="316">
-        <v>86.63</v>
-      </c>
+      <c r="E60" s="316"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E61" s="316">
-        <v>12.5</v>
-      </c>
+      <c r="E61" s="316"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E62" s="316">
-        <v>15.75</v>
-      </c>
+      <c r="E62" s="316"/>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E63" s="316">
-        <v>17.5</v>
-      </c>
+      <c r="E63" s="316"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E64" s="316">
-        <v>17.5</v>
-      </c>
+      <c r="E64" s="316"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E65" s="316">
-        <v>134.75</v>
-      </c>
+      <c r="E65" s="316"/>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E66" s="316">
-        <v>2.62</v>
-      </c>
+      <c r="E66" s="316"/>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E67" s="316">
-        <v>8.75</v>
-      </c>
+      <c r="E67" s="316"/>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E68" s="316">
-        <v>12.5</v>
-      </c>
+      <c r="E68" s="316"/>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" s="316"/>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" s="316"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E71" s="123">
-        <f>SUM(E2:E70)</f>
-        <v>491.44</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
